--- a/dataset1/evaluation/evaluation-accuracy-iterative.xlsx
+++ b/dataset1/evaluation/evaluation-accuracy-iterative.xlsx
@@ -4,16 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="0" windowWidth="25700" windowHeight="16060" tabRatio="824" activeTab="6"/>
+    <workbookView xWindow="-20" yWindow="0" windowWidth="25700" windowHeight="16060" tabRatio="824"/>
   </bookViews>
   <sheets>
-    <sheet name="k=1,10,10,20-all (2)" sheetId="14" r:id="rId1"/>
-    <sheet name="sources" sheetId="3" r:id="rId2"/>
-    <sheet name="correct,10,10,20-internal" sheetId="8" r:id="rId3"/>
-    <sheet name="k=1,10,10,20-all" sheetId="6" r:id="rId4"/>
-    <sheet name="k=4,10,10,20-all" sheetId="7" r:id="rId5"/>
-    <sheet name="Summary" sheetId="4" r:id="rId6"/>
-    <sheet name="charts" sheetId="12" r:id="rId7"/>
+    <sheet name="sources" sheetId="3" r:id="rId1"/>
+    <sheet name="correct,10,10,20-internal" sheetId="8" r:id="rId2"/>
+    <sheet name="k=1,10,10,20-all" sheetId="6" r:id="rId3"/>
+    <sheet name="k=4,10,10,20-all" sheetId="7" r:id="rId4"/>
+    <sheet name="Summary" sheetId="4" r:id="rId5"/>
+    <sheet name="charts" sheetId="12" r:id="rId6"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="111">
   <si>
     <t>Source</t>
   </si>
@@ -2046,11 +2045,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2134179480"/>
-        <c:axId val="2134237256"/>
+        <c:axId val="2122257080"/>
+        <c:axId val="2122262584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2134179480"/>
+        <c:axId val="2122257080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2086,7 +2085,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2134237256"/>
+        <c:crossAx val="2122262584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2095,7 +2094,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2134237256"/>
+        <c:axId val="2122262584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -2133,7 +2132,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2134179480"/>
+        <c:crossAx val="2122257080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.2"/>
@@ -2931,11 +2930,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2134595096"/>
-        <c:axId val="2139110280"/>
+        <c:axId val="2121481864"/>
+        <c:axId val="2121476408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2134595096"/>
+        <c:axId val="2121481864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2971,7 +2970,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2139110280"/>
+        <c:crossAx val="2121476408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2980,7 +2979,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2139110280"/>
+        <c:axId val="2121476408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -2992,7 +2991,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2134595096"/>
+        <c:crossAx val="2121481864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.2"/>
@@ -4137,11 +4136,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2047438024"/>
-        <c:axId val="2130527064"/>
+        <c:axId val="2121433880"/>
+        <c:axId val="2121426200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2047438024"/>
+        <c:axId val="2121433880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4177,7 +4176,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2130527064"/>
+        <c:crossAx val="2121426200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4186,7 +4185,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2130527064"/>
+        <c:axId val="2121426200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.75"/>
@@ -4198,7 +4197,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2047438024"/>
+        <c:crossAx val="2121433880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
@@ -4680,8196 +4679,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CJ31"/>
-  <sheetViews>
-    <sheetView topLeftCell="CC8" workbookViewId="0">
-      <selection activeCell="CJ31" sqref="CJ31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="10.83203125" style="4"/>
-    <col min="2" max="6" width="10.83203125" style="1" customWidth="1"/>
-    <col min="7" max="39" width="10.83203125" style="1"/>
-    <col min="40" max="40" width="11.5" style="1" customWidth="1"/>
-    <col min="41" max="16384" width="10.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:88" s="3" customFormat="1" ht="41" customHeight="1">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" s="24"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="L1" s="24"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="O1" s="24"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="R1" s="24"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="U1" s="24"/>
-      <c r="V1" s="25"/>
-      <c r="W1" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="25"/>
-      <c r="Z1" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA1" s="24"/>
-      <c r="AB1" s="25"/>
-      <c r="AC1" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD1" s="24"/>
-      <c r="AE1" s="25"/>
-      <c r="AF1" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="AG1" s="24"/>
-      <c r="AH1" s="25"/>
-      <c r="AI1" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="AJ1" s="24"/>
-      <c r="AK1" s="25"/>
-      <c r="AL1" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="AM1" s="24"/>
-      <c r="AN1" s="25"/>
-      <c r="AO1" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="AP1" s="24"/>
-      <c r="AQ1" s="25"/>
-      <c r="AR1" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="AS1" s="24"/>
-      <c r="AT1" s="25"/>
-      <c r="AU1" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="AV1" s="24"/>
-      <c r="AW1" s="25"/>
-      <c r="AX1" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="AY1" s="24"/>
-      <c r="AZ1" s="25"/>
-      <c r="BA1" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="BB1" s="24"/>
-      <c r="BC1" s="25"/>
-      <c r="BD1" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="BE1" s="24"/>
-      <c r="BF1" s="25"/>
-      <c r="BG1" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="BH1" s="24"/>
-      <c r="BI1" s="25"/>
-      <c r="BJ1" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="BK1" s="24"/>
-      <c r="BL1" s="25"/>
-      <c r="BM1" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="BN1" s="24"/>
-      <c r="BO1" s="25"/>
-      <c r="BP1" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="BQ1" s="24"/>
-      <c r="BR1" s="25"/>
-      <c r="BS1" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="BT1" s="24"/>
-      <c r="BU1" s="25"/>
-      <c r="BV1" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="BW1" s="24"/>
-      <c r="BX1" s="25"/>
-      <c r="BY1" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="BZ1" s="24"/>
-      <c r="CA1" s="25"/>
-      <c r="CB1" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="CC1" s="24"/>
-      <c r="CD1" s="25"/>
-      <c r="CE1" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="CF1" s="24"/>
-      <c r="CG1" s="25"/>
-      <c r="CH1" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="CI1" s="24"/>
-      <c r="CJ1" s="25"/>
-    </row>
-    <row r="2" spans="1:88" s="3" customFormat="1">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="N2" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="O2" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="P2" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q2" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="R2" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="S2" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="T2" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="U2" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="V2" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="W2" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="X2" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y2" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z2" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA2" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB2" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC2" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD2" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE2" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AF2" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG2" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH2" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI2" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AJ2" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK2" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AL2" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AM2" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="AN2" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AO2" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AP2" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="AQ2" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR2" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AS2" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT2" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AU2" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AV2" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="AW2" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AX2" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AY2" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="AZ2" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="BA2" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="BB2" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="BC2" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="BD2" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="BE2" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="BF2" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="BG2" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="BH2" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="BI2" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="BJ2" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="BK2" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="BL2" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="BM2" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="BN2" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="BO2" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="BP2" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="BQ2" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="BR2" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="BS2" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="BT2" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="BU2" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="BV2" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="BW2" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="BX2" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="BY2" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="BZ2" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="CA2" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="CB2" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="CC2" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="CD2" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="CE2" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="CF2" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="CG2" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="CH2" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="CI2" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="CJ2" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:88">
-      <c r="A3" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0.86</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0.70199999999999996</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0.43</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0.152</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="J3" s="2">
-        <v>0.114</v>
-      </c>
-      <c r="K3" s="2">
-        <v>0.21</v>
-      </c>
-      <c r="L3" s="2">
-        <v>0.12</v>
-      </c>
-      <c r="M3" s="2">
-        <v>0.13600000000000001</v>
-      </c>
-      <c r="N3" s="2">
-        <v>0.69</v>
-      </c>
-      <c r="O3" s="2">
-        <v>0.43</v>
-      </c>
-      <c r="P3" s="2">
-        <v>0.13900000000000001</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>0.74</v>
-      </c>
-      <c r="R3" s="2">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="S3" s="2">
-        <v>0.16600000000000001</v>
-      </c>
-      <c r="T3" s="2">
-        <v>0.36</v>
-      </c>
-      <c r="U3" s="2">
-        <v>0.21</v>
-      </c>
-      <c r="V3" s="2">
-        <v>0.13500000000000001</v>
-      </c>
-      <c r="W3" s="2">
-        <v>0.17</v>
-      </c>
-      <c r="X3" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="Y3" s="2">
-        <v>0.13</v>
-      </c>
-      <c r="Z3" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA3" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="AB3" s="2">
-        <v>9.9000000000000005E-2</v>
-      </c>
-      <c r="AC3" s="2">
-        <v>0.38</v>
-      </c>
-      <c r="AD3" s="2">
-        <v>0.31</v>
-      </c>
-      <c r="AE3" s="2">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="AF3" s="2">
-        <v>0.33</v>
-      </c>
-      <c r="AG3" s="2">
-        <v>0.33</v>
-      </c>
-      <c r="AH3" s="2">
-        <v>0.161</v>
-      </c>
-      <c r="AI3" s="2">
-        <v>0.73</v>
-      </c>
-      <c r="AJ3" s="2">
-        <v>0.67</v>
-      </c>
-      <c r="AK3" s="2">
-        <v>0.151</v>
-      </c>
-      <c r="AL3" s="2">
-        <v>0.54</v>
-      </c>
-      <c r="AM3" s="2">
-        <v>0.54</v>
-      </c>
-      <c r="AN3" s="2">
-        <v>0.13200000000000001</v>
-      </c>
-      <c r="AO3" s="2">
-        <v>0.46</v>
-      </c>
-      <c r="AP3" s="2">
-        <v>0.35</v>
-      </c>
-      <c r="AQ3" s="2">
-        <v>0.189</v>
-      </c>
-      <c r="AR3" s="2">
-        <v>0.62</v>
-      </c>
-      <c r="AS3" s="2">
-        <v>0.47</v>
-      </c>
-      <c r="AT3" s="2">
-        <v>0.13400000000000001</v>
-      </c>
-      <c r="AU3" s="2">
-        <v>0.38</v>
-      </c>
-      <c r="AV3" s="2">
-        <v>0.38</v>
-      </c>
-      <c r="AW3" s="2">
-        <v>0.14399999999999999</v>
-      </c>
-      <c r="AX3" s="2">
-        <v>0.62</v>
-      </c>
-      <c r="AY3" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AZ3" s="2">
-        <v>0.28499999999999998</v>
-      </c>
-      <c r="BA3" s="2">
-        <v>0.33</v>
-      </c>
-      <c r="BB3" s="2">
-        <v>0.33</v>
-      </c>
-      <c r="BC3" s="2">
-        <v>0.12</v>
-      </c>
-      <c r="BD3" s="2">
-        <v>0.67</v>
-      </c>
-      <c r="BE3" s="2">
-        <v>0.42</v>
-      </c>
-      <c r="BF3" s="2">
-        <v>0.14399999999999999</v>
-      </c>
-      <c r="BG3" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="BH3" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="BI3" s="2">
-        <v>0.14299999999999999</v>
-      </c>
-      <c r="BJ3" s="2">
-        <v>0.31</v>
-      </c>
-      <c r="BK3" s="2">
-        <v>0.11</v>
-      </c>
-      <c r="BL3" s="2">
-        <v>0.13400000000000001</v>
-      </c>
-      <c r="BM3" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="BN3" s="2">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="BO3" s="2">
-        <v>0.17199999999999999</v>
-      </c>
-      <c r="BP3" s="2">
-        <v>0.74</v>
-      </c>
-      <c r="BQ3" s="2">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="BR3" s="2">
-        <v>0.17799999999999999</v>
-      </c>
-      <c r="BS3" s="2">
-        <v>0.54</v>
-      </c>
-      <c r="BT3" s="2">
-        <v>0.54</v>
-      </c>
-      <c r="BU3" s="2">
-        <v>0.17299999999999999</v>
-      </c>
-      <c r="BV3" s="2">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="BW3" s="2">
-        <v>0.44</v>
-      </c>
-      <c r="BX3" s="2">
-        <v>0.377</v>
-      </c>
-      <c r="BY3" s="2">
-        <v>0.41</v>
-      </c>
-      <c r="BZ3" s="2">
-        <v>0.33</v>
-      </c>
-      <c r="CA3" s="2">
-        <v>0.19400000000000001</v>
-      </c>
-      <c r="CB3" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="CC3" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="CD3" s="2">
-        <v>0.14299999999999999</v>
-      </c>
-      <c r="CE3" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="CF3" s="2">
-        <v>0.32</v>
-      </c>
-      <c r="CG3" s="2">
-        <v>0.18099999999999999</v>
-      </c>
-      <c r="CH3" s="2">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="CI3" s="2">
-        <v>0.45</v>
-      </c>
-      <c r="CJ3" s="2">
-        <v>0.13900000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:88">
-      <c r="A4" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.88</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.27300000000000002</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0.64</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0.17599999999999999</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="J4" s="2">
-        <v>0.11</v>
-      </c>
-      <c r="K4" s="2">
-        <v>0.21</v>
-      </c>
-      <c r="L4" s="2">
-        <v>0.12</v>
-      </c>
-      <c r="M4" s="2">
-        <v>0.13600000000000001</v>
-      </c>
-      <c r="N4" s="2">
-        <v>0.77</v>
-      </c>
-      <c r="O4" s="2">
-        <v>0.48</v>
-      </c>
-      <c r="P4" s="2">
-        <v>0.14199999999999999</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>0.79</v>
-      </c>
-      <c r="R4" s="2">
-        <v>0.62</v>
-      </c>
-      <c r="S4" s="2">
-        <v>0.154</v>
-      </c>
-      <c r="T4" s="2">
-        <v>0.45</v>
-      </c>
-      <c r="U4" s="2">
-        <v>0.26</v>
-      </c>
-      <c r="V4" s="2">
-        <v>0.13700000000000001</v>
-      </c>
-      <c r="W4" s="2">
-        <v>0.33</v>
-      </c>
-      <c r="X4" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="Y4" s="2">
-        <v>0.123</v>
-      </c>
-      <c r="Z4" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AA4" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="AB4" s="2">
-        <v>9.4E-2</v>
-      </c>
-      <c r="AC4" s="2">
-        <v>0.46</v>
-      </c>
-      <c r="AD4" s="2">
-        <v>0.38</v>
-      </c>
-      <c r="AE4" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="AF4" s="2">
-        <v>0.33</v>
-      </c>
-      <c r="AG4" s="2">
-        <v>0.33</v>
-      </c>
-      <c r="AH4" s="2">
-        <v>0.105</v>
-      </c>
-      <c r="AI4" s="2">
-        <v>0.82</v>
-      </c>
-      <c r="AJ4" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="AK4" s="2">
-        <v>0.13100000000000001</v>
-      </c>
-      <c r="AL4" s="2">
-        <v>0.62</v>
-      </c>
-      <c r="AM4" s="2">
-        <v>0.62</v>
-      </c>
-      <c r="AN4" s="2">
-        <v>0.14199999999999999</v>
-      </c>
-      <c r="AO4" s="2">
-        <v>0.54</v>
-      </c>
-      <c r="AP4" s="2">
-        <v>0.41</v>
-      </c>
-      <c r="AQ4" s="2">
-        <v>0.185</v>
-      </c>
-      <c r="AR4" s="2">
-        <v>0.69</v>
-      </c>
-      <c r="AS4" s="2">
-        <v>0.53</v>
-      </c>
-      <c r="AT4" s="2">
-        <v>0.129</v>
-      </c>
-      <c r="AU4" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AV4" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AW4" s="2">
-        <v>0.127</v>
-      </c>
-      <c r="AX4" s="2">
-        <v>0.62</v>
-      </c>
-      <c r="AY4" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AZ4" s="2">
-        <v>0.13</v>
-      </c>
-      <c r="BA4" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="BB4" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="BC4" s="2">
-        <v>0.13700000000000001</v>
-      </c>
-      <c r="BD4" s="2">
-        <v>0.67</v>
-      </c>
-      <c r="BE4" s="2">
-        <v>0.42</v>
-      </c>
-      <c r="BF4" s="2">
-        <v>0.14399999999999999</v>
-      </c>
-      <c r="BG4" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="BH4" s="2">
-        <v>0.33</v>
-      </c>
-      <c r="BI4" s="2">
-        <v>0.13700000000000001</v>
-      </c>
-      <c r="BJ4" s="2">
-        <v>0.38</v>
-      </c>
-      <c r="BK4" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="BL4" s="2">
-        <v>0.123</v>
-      </c>
-      <c r="BM4" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="BN4" s="2">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="BO4" s="2">
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="BP4" s="2">
-        <v>0.79</v>
-      </c>
-      <c r="BQ4" s="2">
-        <v>0.62</v>
-      </c>
-      <c r="BR4" s="2">
-        <v>0.17299999999999999</v>
-      </c>
-      <c r="BS4" s="2">
-        <v>0.54</v>
-      </c>
-      <c r="BT4" s="2">
-        <v>0.54</v>
-      </c>
-      <c r="BU4" s="2">
-        <v>0.17799999999999999</v>
-      </c>
-      <c r="BV4" s="2">
-        <v>0.64</v>
-      </c>
-      <c r="BW4" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="BX4" s="2">
-        <v>0.379</v>
-      </c>
-      <c r="BY4" s="2">
-        <v>0.41</v>
-      </c>
-      <c r="BZ4" s="2">
-        <v>0.33</v>
-      </c>
-      <c r="CA4" s="2">
-        <v>0.22</v>
-      </c>
-      <c r="CB4" s="2">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="CC4" s="2">
-        <v>0.47</v>
-      </c>
-      <c r="CD4" s="2">
-        <v>0.158</v>
-      </c>
-      <c r="CE4" s="2">
-        <v>0.47</v>
-      </c>
-      <c r="CF4" s="2">
-        <v>0.37</v>
-      </c>
-      <c r="CG4" s="2">
-        <v>0.188</v>
-      </c>
-      <c r="CH4" s="2">
-        <v>0.67</v>
-      </c>
-      <c r="CI4" s="2">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="CJ4" s="2">
-        <v>0.126</v>
-      </c>
-    </row>
-    <row r="5" spans="1:88">
-      <c r="A5" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.88</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.23300000000000001</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0.64</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0.14799999999999999</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="J5" s="2">
-        <v>0.10299999999999999</v>
-      </c>
-      <c r="K5" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="L5" s="2">
-        <v>0.12</v>
-      </c>
-      <c r="M5" s="2">
-        <v>0.14099999999999999</v>
-      </c>
-      <c r="N5" s="2">
-        <v>0.77</v>
-      </c>
-      <c r="O5" s="2">
-        <v>0.48</v>
-      </c>
-      <c r="P5" s="2">
-        <v>0.14699999999999999</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>0.83</v>
-      </c>
-      <c r="R5" s="2">
-        <v>0.62</v>
-      </c>
-      <c r="S5" s="2">
-        <v>0.157</v>
-      </c>
-      <c r="T5" s="2">
-        <v>0.45</v>
-      </c>
-      <c r="U5" s="2">
-        <v>0.26</v>
-      </c>
-      <c r="V5" s="2">
-        <v>0.14899999999999999</v>
-      </c>
-      <c r="W5" s="2">
-        <v>0.33</v>
-      </c>
-      <c r="X5" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="Y5" s="2">
-        <v>0.13400000000000001</v>
-      </c>
-      <c r="Z5" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AA5" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="AB5" s="2">
-        <v>0.107</v>
-      </c>
-      <c r="AC5" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AD5" s="2">
-        <v>0.38</v>
-      </c>
-      <c r="AE5" s="2">
-        <v>0.158</v>
-      </c>
-      <c r="AF5" s="2">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="AG5" s="2">
-        <v>0.33</v>
-      </c>
-      <c r="AH5" s="2">
-        <v>0.27700000000000002</v>
-      </c>
-      <c r="AI5" s="2">
-        <v>0.82</v>
-      </c>
-      <c r="AJ5" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="AK5" s="2">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AL5" s="2">
-        <v>0.62</v>
-      </c>
-      <c r="AM5" s="2">
-        <v>0.62</v>
-      </c>
-      <c r="AN5" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="AO5" s="2">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="AP5" s="2">
-        <v>0.47</v>
-      </c>
-      <c r="AQ5" s="2">
-        <v>0.14299999999999999</v>
-      </c>
-      <c r="AR5" s="2">
-        <v>0.69</v>
-      </c>
-      <c r="AS5" s="2">
-        <v>0.53</v>
-      </c>
-      <c r="AT5" s="2">
-        <v>0.13</v>
-      </c>
-      <c r="AU5" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AV5" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AW5" s="2">
-        <v>0.14599999999999999</v>
-      </c>
-      <c r="AX5" s="2">
-        <v>0.64</v>
-      </c>
-      <c r="AY5" s="2">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="AZ5" s="2">
-        <v>0.152</v>
-      </c>
-      <c r="BA5" s="2">
-        <v>0.43</v>
-      </c>
-      <c r="BB5" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="BC5" s="2">
-        <v>0.158</v>
-      </c>
-      <c r="BD5" s="2">
-        <v>0.69</v>
-      </c>
-      <c r="BE5" s="2">
-        <v>0.46</v>
-      </c>
-      <c r="BF5" s="2">
-        <v>0.14799999999999999</v>
-      </c>
-      <c r="BG5" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="BH5" s="2">
-        <v>0.33</v>
-      </c>
-      <c r="BI5" s="2">
-        <v>0.14599999999999999</v>
-      </c>
-      <c r="BJ5" s="2">
-        <v>0.43</v>
-      </c>
-      <c r="BK5" s="2">
-        <v>0.16</v>
-      </c>
-      <c r="BL5" s="2">
-        <v>0.125</v>
-      </c>
-      <c r="BM5" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="BN5" s="2">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="BO5" s="2">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="BP5" s="2">
-        <v>0.83</v>
-      </c>
-      <c r="BQ5" s="2">
-        <v>0.62</v>
-      </c>
-      <c r="BR5" s="2">
-        <v>0.13700000000000001</v>
-      </c>
-      <c r="BS5" s="2">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="BT5" s="2">
-        <v>0.62</v>
-      </c>
-      <c r="BU5" s="2">
-        <v>0.14799999999999999</v>
-      </c>
-      <c r="BV5" s="2">
-        <v>0.69</v>
-      </c>
-      <c r="BW5" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="BX5" s="2">
-        <v>0.41799999999999998</v>
-      </c>
-      <c r="BY5" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="BZ5" s="2">
-        <v>0.38</v>
-      </c>
-      <c r="CA5" s="2">
-        <v>0.26300000000000001</v>
-      </c>
-      <c r="CB5" s="2">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="CC5" s="2">
-        <v>0.47</v>
-      </c>
-      <c r="CD5" s="2">
-        <v>0.14899999999999999</v>
-      </c>
-      <c r="CE5" s="2">
-        <v>0.47</v>
-      </c>
-      <c r="CF5" s="2">
-        <v>0.37</v>
-      </c>
-      <c r="CG5" s="2">
-        <v>0.13900000000000001</v>
-      </c>
-      <c r="CH5" s="2">
-        <v>0.78</v>
-      </c>
-      <c r="CI5" s="2">
-        <v>0.64</v>
-      </c>
-      <c r="CJ5" s="2">
-        <v>0.106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:88">
-      <c r="A6" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.88</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0.28299999999999997</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0.47</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0.28799999999999998</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="J6" s="2">
-        <v>0.11600000000000001</v>
-      </c>
-      <c r="K6" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="L6" s="2">
-        <v>0.12</v>
-      </c>
-      <c r="M6" s="2">
-        <v>0.16300000000000001</v>
-      </c>
-      <c r="N6" s="2">
-        <v>0.77</v>
-      </c>
-      <c r="O6" s="2">
-        <v>0.48</v>
-      </c>
-      <c r="P6" s="2">
-        <v>0.13300000000000001</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>0.83</v>
-      </c>
-      <c r="R6" s="2">
-        <v>0.62</v>
-      </c>
-      <c r="S6" s="2">
-        <v>0.152</v>
-      </c>
-      <c r="T6" s="2">
-        <v>0.45</v>
-      </c>
-      <c r="U6" s="2">
-        <v>0.26</v>
-      </c>
-      <c r="V6" s="2">
-        <v>0.28799999999999998</v>
-      </c>
-      <c r="W6" s="2">
-        <v>0.33</v>
-      </c>
-      <c r="X6" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="Y6" s="2">
-        <v>0.14699999999999999</v>
-      </c>
-      <c r="Z6" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AA6" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="AB6" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="AC6" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AD6" s="2">
-        <v>0.38</v>
-      </c>
-      <c r="AE6" s="2">
-        <v>0.14199999999999999</v>
-      </c>
-      <c r="AF6" s="2">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="AG6" s="2">
-        <v>0.33</v>
-      </c>
-      <c r="AH6" s="2">
-        <v>0.11</v>
-      </c>
-      <c r="AI6" s="2">
-        <v>0.82</v>
-      </c>
-      <c r="AJ6" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="AK6" s="2">
-        <v>0.153</v>
-      </c>
-      <c r="AL6" s="2">
-        <v>0.62</v>
-      </c>
-      <c r="AM6" s="2">
-        <v>0.62</v>
-      </c>
-      <c r="AN6" s="2">
-        <v>0.13900000000000001</v>
-      </c>
-      <c r="AO6" s="2">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="AP6" s="2">
-        <v>0.47</v>
-      </c>
-      <c r="AQ6" s="2">
-        <v>0.182</v>
-      </c>
-      <c r="AR6" s="2">
-        <v>0.69</v>
-      </c>
-      <c r="AS6" s="2">
-        <v>0.53</v>
-      </c>
-      <c r="AT6" s="2">
-        <v>0.151</v>
-      </c>
-      <c r="AU6" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AV6" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AW6" s="2">
-        <v>0.13800000000000001</v>
-      </c>
-      <c r="AX6" s="2">
-        <v>0.64</v>
-      </c>
-      <c r="AY6" s="2">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="AZ6" s="2">
-        <v>0.152</v>
-      </c>
-      <c r="BA6" s="2">
-        <v>0.43</v>
-      </c>
-      <c r="BB6" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="BC6" s="2">
-        <v>0.14699999999999999</v>
-      </c>
-      <c r="BD6" s="2">
-        <v>0.69</v>
-      </c>
-      <c r="BE6" s="2">
-        <v>0.46</v>
-      </c>
-      <c r="BF6" s="2">
-        <v>0.159</v>
-      </c>
-      <c r="BG6" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="BH6" s="2">
-        <v>0.33</v>
-      </c>
-      <c r="BI6" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="BJ6" s="2">
-        <v>0.43</v>
-      </c>
-      <c r="BK6" s="2">
-        <v>0.16</v>
-      </c>
-      <c r="BL6" s="2">
-        <v>0.13200000000000001</v>
-      </c>
-      <c r="BM6" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="BN6" s="2">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="BO6" s="2">
-        <v>0.16400000000000001</v>
-      </c>
-      <c r="BP6" s="2">
-        <v>0.83</v>
-      </c>
-      <c r="BQ6" s="2">
-        <v>0.62</v>
-      </c>
-      <c r="BR6" s="2">
-        <v>0.16600000000000001</v>
-      </c>
-      <c r="BS6" s="2">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="BT6" s="2">
-        <v>0.62</v>
-      </c>
-      <c r="BU6" s="2">
-        <v>0.161</v>
-      </c>
-      <c r="BV6" s="2">
-        <v>0.69</v>
-      </c>
-      <c r="BW6" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="BX6" s="2">
-        <v>0.442</v>
-      </c>
-      <c r="BY6" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="BZ6" s="2">
-        <v>0.38</v>
-      </c>
-      <c r="CA6" s="2">
-        <v>0.27100000000000002</v>
-      </c>
-      <c r="CB6" s="2">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="CC6" s="2">
-        <v>0.47</v>
-      </c>
-      <c r="CD6" s="2">
-        <v>0.14699999999999999</v>
-      </c>
-      <c r="CE6" s="2">
-        <v>0.47</v>
-      </c>
-      <c r="CF6" s="2">
-        <v>0.37</v>
-      </c>
-      <c r="CG6" s="2">
-        <v>0.17100000000000001</v>
-      </c>
-      <c r="CH6" s="2">
-        <v>0.78</v>
-      </c>
-      <c r="CI6" s="2">
-        <v>0.64</v>
-      </c>
-      <c r="CJ6" s="2">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:88">
-      <c r="A7" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.88</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0.27900000000000003</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0.47</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0.26500000000000001</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="J7" s="2">
-        <v>0.109</v>
-      </c>
-      <c r="K7" s="2">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="L7" s="2">
-        <v>0.46</v>
-      </c>
-      <c r="M7" s="2">
-        <v>0.20399999999999999</v>
-      </c>
-      <c r="N7" s="2">
-        <v>0.82</v>
-      </c>
-      <c r="O7" s="2">
-        <v>0.67</v>
-      </c>
-      <c r="P7" s="2">
-        <v>0.13100000000000001</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="R7" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="S7" s="2">
-        <v>0.16600000000000001</v>
-      </c>
-      <c r="T7" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="U7" s="2">
-        <v>0.37</v>
-      </c>
-      <c r="V7" s="2">
-        <v>0.123</v>
-      </c>
-      <c r="W7" s="2">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="X7" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="Y7" s="2">
-        <v>0.11</v>
-      </c>
-      <c r="Z7" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="AA7" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="AB7" s="2">
-        <v>0.11899999999999999</v>
-      </c>
-      <c r="AC7" s="2">
-        <v>0.69</v>
-      </c>
-      <c r="AD7" s="2">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="AE7" s="2">
-        <v>0.16400000000000001</v>
-      </c>
-      <c r="AF7" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="AG7" s="2">
-        <v>0.33</v>
-      </c>
-      <c r="AH7" s="2">
-        <v>0.104</v>
-      </c>
-      <c r="AI7" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="AJ7" s="2">
-        <v>0.92</v>
-      </c>
-      <c r="AK7" s="2">
-        <v>0.14899999999999999</v>
-      </c>
-      <c r="AL7" s="2">
-        <v>0.71</v>
-      </c>
-      <c r="AM7" s="2">
-        <v>0.77</v>
-      </c>
-      <c r="AN7" s="2">
-        <v>0.124</v>
-      </c>
-      <c r="AO7" s="2">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="AP7" s="2">
-        <v>0.53</v>
-      </c>
-      <c r="AQ7" s="2">
-        <v>0.56499999999999995</v>
-      </c>
-      <c r="AR7" s="2">
-        <v>0.69</v>
-      </c>
-      <c r="AS7" s="2">
-        <v>0.65</v>
-      </c>
-      <c r="AT7" s="2">
-        <v>0.14799999999999999</v>
-      </c>
-      <c r="AU7" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="AV7" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="AW7" s="2">
-        <v>0.151</v>
-      </c>
-      <c r="AX7" s="2">
-        <v>0.76</v>
-      </c>
-      <c r="AY7" s="2">
-        <v>0.81</v>
-      </c>
-      <c r="AZ7" s="2">
-        <v>0.17399999999999999</v>
-      </c>
-      <c r="BA7" s="2">
-        <v>0.33</v>
-      </c>
-      <c r="BB7" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="BC7" s="2">
-        <v>0.13100000000000001</v>
-      </c>
-      <c r="BD7" s="2">
-        <v>0.89</v>
-      </c>
-      <c r="BE7" s="2">
-        <v>0.71</v>
-      </c>
-      <c r="BF7" s="2">
-        <v>0.17</v>
-      </c>
-      <c r="BG7" s="2">
-        <v>0.46</v>
-      </c>
-      <c r="BH7" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="BI7" s="2">
-        <v>0.14599999999999999</v>
-      </c>
-      <c r="BJ7" s="2">
-        <v>0.53</v>
-      </c>
-      <c r="BK7" s="2">
-        <v>0.27</v>
-      </c>
-      <c r="BL7" s="2">
-        <v>0.17599999999999999</v>
-      </c>
-      <c r="BM7" s="2">
-        <v>0.67</v>
-      </c>
-      <c r="BN7" s="2">
-        <v>0.73</v>
-      </c>
-      <c r="BO7" s="2">
-        <v>0.30399999999999999</v>
-      </c>
-      <c r="BP7" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="BQ7" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="BR7" s="2">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="BS7" s="2">
-        <v>0.67</v>
-      </c>
-      <c r="BT7" s="2">
-        <v>0.77</v>
-      </c>
-      <c r="BU7" s="2">
-        <v>0.18099999999999999</v>
-      </c>
-      <c r="BV7" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="BW7" s="2">
-        <v>0.67</v>
-      </c>
-      <c r="BX7" s="2">
-        <v>0.38</v>
-      </c>
-      <c r="BY7" s="2">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="BZ7" s="2">
-        <v>0.52</v>
-      </c>
-      <c r="CA7" s="2">
-        <v>0.24099999999999999</v>
-      </c>
-      <c r="CB7" s="2">
-        <v>0.64</v>
-      </c>
-      <c r="CC7" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="CD7" s="2">
-        <v>0.155</v>
-      </c>
-      <c r="CE7" s="2">
-        <v>0.47</v>
-      </c>
-      <c r="CF7" s="2">
-        <v>0.42</v>
-      </c>
-      <c r="CG7" s="2">
-        <v>0.218</v>
-      </c>
-      <c r="CH7" s="2">
-        <v>0.38</v>
-      </c>
-      <c r="CI7" s="2">
-        <v>0.45</v>
-      </c>
-      <c r="CJ7" s="2">
-        <v>0.313</v>
-      </c>
-    </row>
-    <row r="8" spans="1:88">
-      <c r="A8" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.88</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0.25900000000000001</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0.47</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0.29599999999999999</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="I8" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="J8" s="2">
-        <v>0.17</v>
-      </c>
-      <c r="K8" s="2">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="L8" s="2">
-        <v>0.46</v>
-      </c>
-      <c r="M8" s="2">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="N8" s="2">
-        <v>0.82</v>
-      </c>
-      <c r="O8" s="2">
-        <v>0.67</v>
-      </c>
-      <c r="P8" s="2">
-        <v>0.156</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>0.91</v>
-      </c>
-      <c r="R8" s="2">
-        <v>0.83</v>
-      </c>
-      <c r="S8" s="2">
-        <v>0.16900000000000001</v>
-      </c>
-      <c r="T8" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="U8" s="2">
-        <v>0.37</v>
-      </c>
-      <c r="V8" s="2">
-        <v>0.152</v>
-      </c>
-      <c r="W8" s="2">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="X8" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="Y8" s="2">
-        <v>0.12</v>
-      </c>
-      <c r="Z8" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="AA8" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="AB8" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="AC8" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="AD8" s="2">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="AE8" s="2">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="AF8" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="AG8" s="2">
-        <v>0.33</v>
-      </c>
-      <c r="AH8" s="2">
-        <v>0.127</v>
-      </c>
-      <c r="AI8" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="AJ8" s="2">
-        <v>0.92</v>
-      </c>
-      <c r="AK8" s="2">
-        <v>0.35199999999999998</v>
-      </c>
-      <c r="AL8" s="2">
-        <v>0.71</v>
-      </c>
-      <c r="AM8" s="2">
-        <v>0.77</v>
-      </c>
-      <c r="AN8" s="2">
-        <v>0.13900000000000001</v>
-      </c>
-      <c r="AO8" s="2">
-        <v>0.62</v>
-      </c>
-      <c r="AP8" s="2">
-        <v>0.59</v>
-      </c>
-      <c r="AQ8" s="2">
-        <v>0.157</v>
-      </c>
-      <c r="AR8" s="2">
-        <v>0.69</v>
-      </c>
-      <c r="AS8" s="2">
-        <v>0.65</v>
-      </c>
-      <c r="AT8" s="2">
-        <v>0.14099999999999999</v>
-      </c>
-      <c r="AU8" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="AV8" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="AW8" s="2">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AX8" s="2">
-        <v>0.76</v>
-      </c>
-      <c r="AY8" s="2">
-        <v>0.81</v>
-      </c>
-      <c r="AZ8" s="2">
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="BA8" s="2">
-        <v>0.33</v>
-      </c>
-      <c r="BB8" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="BC8" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="BD8" s="2">
-        <v>0.89</v>
-      </c>
-      <c r="BE8" s="2">
-        <v>0.71</v>
-      </c>
-      <c r="BF8" s="2">
-        <v>0.188</v>
-      </c>
-      <c r="BG8" s="2">
-        <v>0.46</v>
-      </c>
-      <c r="BH8" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="BI8" s="2">
-        <v>0.17199999999999999</v>
-      </c>
-      <c r="BJ8" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="BK8" s="2">
-        <v>0.27</v>
-      </c>
-      <c r="BL8" s="2">
-        <v>0.18</v>
-      </c>
-      <c r="BM8" s="2">
-        <v>0.67</v>
-      </c>
-      <c r="BN8" s="2">
-        <v>0.73</v>
-      </c>
-      <c r="BO8" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="BP8" s="2">
-        <v>0.91</v>
-      </c>
-      <c r="BQ8" s="2">
-        <v>0.83</v>
-      </c>
-      <c r="BR8" s="2">
-        <v>0.18099999999999999</v>
-      </c>
-      <c r="BS8" s="2">
-        <v>0.67</v>
-      </c>
-      <c r="BT8" s="2">
-        <v>0.77</v>
-      </c>
-      <c r="BU8" s="2">
-        <v>0.19500000000000001</v>
-      </c>
-      <c r="BV8" s="2">
-        <v>0.82</v>
-      </c>
-      <c r="BW8" s="2">
-        <v>0.78</v>
-      </c>
-      <c r="BX8" s="2">
-        <v>0.32200000000000001</v>
-      </c>
-      <c r="BY8" s="2">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="BZ8" s="2">
-        <v>0.52</v>
-      </c>
-      <c r="CA8" s="2">
-        <v>0.26500000000000001</v>
-      </c>
-      <c r="CB8" s="2">
-        <v>0.64</v>
-      </c>
-      <c r="CC8" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="CD8" s="2">
-        <v>0.16400000000000001</v>
-      </c>
-      <c r="CE8" s="2">
-        <v>0.47</v>
-      </c>
-      <c r="CF8" s="2">
-        <v>0.42</v>
-      </c>
-      <c r="CG8" s="2">
-        <v>0.17699999999999999</v>
-      </c>
-      <c r="CH8" s="2">
-        <v>0.54</v>
-      </c>
-      <c r="CI8" s="2">
-        <v>0.64</v>
-      </c>
-      <c r="CJ8" s="2">
-        <v>0.154</v>
-      </c>
-    </row>
-    <row r="9" spans="1:88">
-      <c r="A9" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.88</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0.28499999999999998</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0.47</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0.184</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="J9" s="2">
-        <v>0.159</v>
-      </c>
-      <c r="K9" s="2">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="L9" s="2">
-        <v>0.46</v>
-      </c>
-      <c r="M9" s="2">
-        <v>0.376</v>
-      </c>
-      <c r="N9" s="2">
-        <v>0.82</v>
-      </c>
-      <c r="O9" s="2">
-        <v>0.67</v>
-      </c>
-      <c r="P9" s="2">
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="Q9" s="2">
-        <v>0.91</v>
-      </c>
-      <c r="R9" s="2">
-        <v>0.83</v>
-      </c>
-      <c r="S9" s="2">
-        <v>0.36299999999999999</v>
-      </c>
-      <c r="T9" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="U9" s="2">
-        <v>0.37</v>
-      </c>
-      <c r="V9" s="2">
-        <v>0.17799999999999999</v>
-      </c>
-      <c r="W9" s="2">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="X9" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="Y9" s="2">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="Z9" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AA9" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="AB9" s="2">
-        <v>0.129</v>
-      </c>
-      <c r="AC9" s="2">
-        <v>0.64</v>
-      </c>
-      <c r="AD9" s="2">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="AE9" s="2">
-        <v>0.20899999999999999</v>
-      </c>
-      <c r="AF9" s="2">
-        <v>0.22</v>
-      </c>
-      <c r="AG9" s="2">
-        <v>0.33</v>
-      </c>
-      <c r="AH9" s="2">
-        <v>0.19500000000000001</v>
-      </c>
-      <c r="AI9" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="AJ9" s="2">
-        <v>0.92</v>
-      </c>
-      <c r="AK9" s="2">
-        <v>0.191</v>
-      </c>
-      <c r="AL9" s="2">
-        <v>0.71</v>
-      </c>
-      <c r="AM9" s="2">
-        <v>0.77</v>
-      </c>
-      <c r="AN9" s="2">
-        <v>0.17199999999999999</v>
-      </c>
-      <c r="AO9" s="2">
-        <v>0.62</v>
-      </c>
-      <c r="AP9" s="2">
-        <v>0.59</v>
-      </c>
-      <c r="AQ9" s="2">
-        <v>0.17799999999999999</v>
-      </c>
-      <c r="AR9" s="2">
-        <v>0.69</v>
-      </c>
-      <c r="AS9" s="2">
-        <v>0.65</v>
-      </c>
-      <c r="AT9" s="2">
-        <v>0.182</v>
-      </c>
-      <c r="AU9" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="AV9" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="AW9" s="2">
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="AX9" s="2">
-        <v>0.76</v>
-      </c>
-      <c r="AY9" s="2">
-        <v>0.81</v>
-      </c>
-      <c r="AZ9" s="2">
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="BA9" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="BB9" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="BC9" s="2">
-        <v>0.33200000000000002</v>
-      </c>
-      <c r="BD9" s="2">
-        <v>0.89</v>
-      </c>
-      <c r="BE9" s="2">
-        <v>0.71</v>
-      </c>
-      <c r="BF9" s="2">
-        <v>0.224</v>
-      </c>
-      <c r="BG9" s="2">
-        <v>0.46</v>
-      </c>
-      <c r="BH9" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="BI9" s="2">
-        <v>0.157</v>
-      </c>
-      <c r="BJ9" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="BK9" s="2">
-        <v>0.32</v>
-      </c>
-      <c r="BL9" s="2">
-        <v>0.223</v>
-      </c>
-      <c r="BM9" s="2">
-        <v>0.67</v>
-      </c>
-      <c r="BN9" s="2">
-        <v>0.73</v>
-      </c>
-      <c r="BO9" s="2">
-        <v>0.188</v>
-      </c>
-      <c r="BP9" s="2">
-        <v>0.83</v>
-      </c>
-      <c r="BQ9" s="2">
-        <v>0.83</v>
-      </c>
-      <c r="BR9" s="2">
-        <v>0.20100000000000001</v>
-      </c>
-      <c r="BS9" s="2">
-        <v>0.67</v>
-      </c>
-      <c r="BT9" s="2">
-        <v>0.77</v>
-      </c>
-      <c r="BU9" s="2">
-        <v>0.219</v>
-      </c>
-      <c r="BV9" s="2">
-        <v>0.63</v>
-      </c>
-      <c r="BW9" s="2">
-        <v>0.67</v>
-      </c>
-      <c r="BX9" s="2">
-        <v>0.34899999999999998</v>
-      </c>
-      <c r="BY9" s="2">
-        <v>0.52</v>
-      </c>
-      <c r="BZ9" s="2">
-        <v>0.52</v>
-      </c>
-      <c r="CA9" s="2">
-        <v>0.34399999999999997</v>
-      </c>
-      <c r="CB9" s="2">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="CC9" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="CD9" s="2">
-        <v>0.24199999999999999</v>
-      </c>
-      <c r="CE9" s="2">
-        <v>0.43</v>
-      </c>
-      <c r="CF9" s="2">
-        <v>0.47</v>
-      </c>
-      <c r="CG9" s="2">
-        <v>0.28100000000000003</v>
-      </c>
-      <c r="CH9" s="2">
-        <v>0.46</v>
-      </c>
-      <c r="CI9" s="2">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="CJ9" s="2">
-        <v>0.219</v>
-      </c>
-    </row>
-    <row r="10" spans="1:88">
-      <c r="A10" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0.88</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0.27100000000000002</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0.47</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0.20300000000000001</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="J10" s="2">
-        <v>0.185</v>
-      </c>
-      <c r="K10" s="2">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="L10" s="2">
-        <v>0.46</v>
-      </c>
-      <c r="M10" s="2">
-        <v>0.39</v>
-      </c>
-      <c r="N10" s="2">
-        <v>0.82</v>
-      </c>
-      <c r="O10" s="2">
-        <v>0.67</v>
-      </c>
-      <c r="P10" s="2">
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="Q10" s="2">
-        <v>0.91</v>
-      </c>
-      <c r="R10" s="2">
-        <v>0.83</v>
-      </c>
-      <c r="S10" s="2">
-        <v>0.22800000000000001</v>
-      </c>
-      <c r="T10" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="U10" s="2">
-        <v>0.37</v>
-      </c>
-      <c r="V10" s="2">
-        <v>0.16900000000000001</v>
-      </c>
-      <c r="W10" s="2">
-        <v>0.62</v>
-      </c>
-      <c r="X10" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="Y10" s="2">
-        <v>0.182</v>
-      </c>
-      <c r="Z10" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AA10" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="AB10" s="2">
-        <v>0.14599999999999999</v>
-      </c>
-      <c r="AC10" s="2">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="AD10" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AE10" s="2">
-        <v>0.40200000000000002</v>
-      </c>
-      <c r="AF10" s="2">
-        <v>0.22</v>
-      </c>
-      <c r="AG10" s="2">
-        <v>0.33</v>
-      </c>
-      <c r="AH10" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AI10" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="AJ10" s="2">
-        <v>0.92</v>
-      </c>
-      <c r="AK10" s="2">
-        <v>0.21199999999999999</v>
-      </c>
-      <c r="AL10" s="2">
-        <v>0.71</v>
-      </c>
-      <c r="AM10" s="2">
-        <v>0.77</v>
-      </c>
-      <c r="AN10" s="2">
-        <v>0.182</v>
-      </c>
-      <c r="AO10" s="2">
-        <v>0.62</v>
-      </c>
-      <c r="AP10" s="2">
-        <v>0.59</v>
-      </c>
-      <c r="AQ10" s="2">
-        <v>0.18</v>
-      </c>
-      <c r="AR10" s="2">
-        <v>0.69</v>
-      </c>
-      <c r="AS10" s="2">
-        <v>0.65</v>
-      </c>
-      <c r="AT10" s="2">
-        <v>0.33500000000000002</v>
-      </c>
-      <c r="AU10" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="AV10" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="AW10" s="2">
-        <v>0.17599999999999999</v>
-      </c>
-      <c r="AX10" s="2">
-        <v>0.76</v>
-      </c>
-      <c r="AY10" s="2">
-        <v>0.81</v>
-      </c>
-      <c r="AZ10" s="2">
-        <v>0.20399999999999999</v>
-      </c>
-      <c r="BA10" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="BB10" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="BC10" s="2">
-        <v>0.19500000000000001</v>
-      </c>
-      <c r="BD10" s="2">
-        <v>0.89</v>
-      </c>
-      <c r="BE10" s="2">
-        <v>0.71</v>
-      </c>
-      <c r="BF10" s="2">
-        <v>0.23899999999999999</v>
-      </c>
-      <c r="BG10" s="2">
-        <v>0.46</v>
-      </c>
-      <c r="BH10" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="BI10" s="2">
-        <v>0.187</v>
-      </c>
-      <c r="BJ10" s="2">
-        <v>0.54</v>
-      </c>
-      <c r="BK10" s="2">
-        <v>0.35</v>
-      </c>
-      <c r="BL10" s="2">
-        <v>0.223</v>
-      </c>
-      <c r="BM10" s="2">
-        <v>0.67</v>
-      </c>
-      <c r="BN10" s="2">
-        <v>0.73</v>
-      </c>
-      <c r="BO10" s="2">
-        <v>0.215</v>
-      </c>
-      <c r="BP10" s="2">
-        <v>0.88</v>
-      </c>
-      <c r="BQ10" s="2">
-        <v>0.88</v>
-      </c>
-      <c r="BR10" s="2">
-        <v>0.34300000000000003</v>
-      </c>
-      <c r="BS10" s="2">
-        <v>0.67</v>
-      </c>
-      <c r="BT10" s="2">
-        <v>0.77</v>
-      </c>
-      <c r="BU10" s="2">
-        <v>0.254</v>
-      </c>
-      <c r="BV10" s="2">
-        <v>0.79</v>
-      </c>
-      <c r="BW10" s="2">
-        <v>0.83</v>
-      </c>
-      <c r="BX10" s="2">
-        <v>0.67</v>
-      </c>
-      <c r="BY10" s="2">
-        <v>0.48</v>
-      </c>
-      <c r="BZ10" s="2">
-        <v>0.48</v>
-      </c>
-      <c r="CA10" s="2">
-        <v>0.876</v>
-      </c>
-      <c r="CB10" s="2">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="CC10" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="CD10" s="2">
-        <v>0.23400000000000001</v>
-      </c>
-      <c r="CE10" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="CF10" s="2">
-        <v>0.53</v>
-      </c>
-      <c r="CG10" s="2">
-        <v>0.495</v>
-      </c>
-      <c r="CH10" s="2">
-        <v>0.54</v>
-      </c>
-      <c r="CI10" s="2">
-        <v>0.64</v>
-      </c>
-      <c r="CJ10" s="2">
-        <v>0.22600000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:88">
-      <c r="A11" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0.88</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0.24399999999999999</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0.47</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0.20899999999999999</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="I11" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="J11" s="2">
-        <v>0.19700000000000001</v>
-      </c>
-      <c r="K11" s="2">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="L11" s="2">
-        <v>0.46</v>
-      </c>
-      <c r="M11" s="2">
-        <v>0.38800000000000001</v>
-      </c>
-      <c r="N11" s="2">
-        <v>0.82</v>
-      </c>
-      <c r="O11" s="2">
-        <v>0.67</v>
-      </c>
-      <c r="P11" s="2">
-        <v>0.192</v>
-      </c>
-      <c r="Q11" s="2">
-        <v>0.91</v>
-      </c>
-      <c r="R11" s="2">
-        <v>0.83</v>
-      </c>
-      <c r="S11" s="2">
-        <v>0.224</v>
-      </c>
-      <c r="T11" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="U11" s="2">
-        <v>0.37</v>
-      </c>
-      <c r="V11" s="2">
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="W11" s="2">
-        <v>0.62</v>
-      </c>
-      <c r="X11" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="Y11" s="2">
-        <v>0.18</v>
-      </c>
-      <c r="Z11" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AA11" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="AB11" s="2">
-        <v>0.151</v>
-      </c>
-      <c r="AC11" s="2">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="AD11" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AE11" s="2">
-        <v>0.26600000000000001</v>
-      </c>
-      <c r="AF11" s="2">
-        <v>0.22</v>
-      </c>
-      <c r="AG11" s="2">
-        <v>0.33</v>
-      </c>
-      <c r="AH11" s="2">
-        <v>0.20499999999999999</v>
-      </c>
-      <c r="AI11" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="AJ11" s="2">
-        <v>0.92</v>
-      </c>
-      <c r="AK11" s="2">
-        <v>0.19</v>
-      </c>
-      <c r="AL11" s="2">
-        <v>0.71</v>
-      </c>
-      <c r="AM11" s="2">
-        <v>0.77</v>
-      </c>
-      <c r="AN11" s="2">
-        <v>0.219</v>
-      </c>
-      <c r="AO11" s="2">
-        <v>0.62</v>
-      </c>
-      <c r="AP11" s="2">
-        <v>0.59</v>
-      </c>
-      <c r="AQ11" s="2">
-        <v>0.192</v>
-      </c>
-      <c r="AR11" s="2">
-        <v>0.69</v>
-      </c>
-      <c r="AS11" s="2">
-        <v>0.65</v>
-      </c>
-      <c r="AT11" s="2">
-        <v>0.182</v>
-      </c>
-      <c r="AU11" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="AV11" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="AW11" s="2">
-        <v>0.188</v>
-      </c>
-      <c r="AX11" s="2">
-        <v>0.76</v>
-      </c>
-      <c r="AY11" s="2">
-        <v>0.81</v>
-      </c>
-      <c r="AZ11" s="2">
-        <v>0.19700000000000001</v>
-      </c>
-      <c r="BA11" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="BB11" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="BC11" s="2">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="BD11" s="2">
-        <v>0.89</v>
-      </c>
-      <c r="BE11" s="2">
-        <v>0.71</v>
-      </c>
-      <c r="BF11" s="2">
-        <v>0.24299999999999999</v>
-      </c>
-      <c r="BG11" s="2">
-        <v>0.46</v>
-      </c>
-      <c r="BH11" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="BI11" s="2">
-        <v>0.379</v>
-      </c>
-      <c r="BJ11" s="2">
-        <v>0.54</v>
-      </c>
-      <c r="BK11" s="2">
-        <v>0.35</v>
-      </c>
-      <c r="BL11" s="2">
-        <v>0.23200000000000001</v>
-      </c>
-      <c r="BM11" s="2">
-        <v>0.67</v>
-      </c>
-      <c r="BN11" s="2">
-        <v>0.73</v>
-      </c>
-      <c r="BO11" s="2">
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="BP11" s="2">
-        <v>0.88</v>
-      </c>
-      <c r="BQ11" s="2">
-        <v>0.88</v>
-      </c>
-      <c r="BR11" s="2">
-        <v>0.35499999999999998</v>
-      </c>
-      <c r="BS11" s="2">
-        <v>0.67</v>
-      </c>
-      <c r="BT11" s="2">
-        <v>0.77</v>
-      </c>
-      <c r="BU11" s="2">
-        <v>0.53300000000000003</v>
-      </c>
-      <c r="BV11" s="2">
-        <v>0.79</v>
-      </c>
-      <c r="BW11" s="2">
-        <v>0.83</v>
-      </c>
-      <c r="BX11" s="2">
-        <v>0.66200000000000003</v>
-      </c>
-      <c r="BY11" s="2">
-        <v>0.48</v>
-      </c>
-      <c r="BZ11" s="2">
-        <v>0.48</v>
-      </c>
-      <c r="CA11" s="2">
-        <v>0.75900000000000001</v>
-      </c>
-      <c r="CB11" s="2">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="CC11" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="CD11" s="2">
-        <v>0.23</v>
-      </c>
-      <c r="CE11" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="CF11" s="2">
-        <v>0.53</v>
-      </c>
-      <c r="CG11" s="2">
-        <v>0.49399999999999999</v>
-      </c>
-      <c r="CH11" s="2">
-        <v>0.54</v>
-      </c>
-      <c r="CI11" s="2">
-        <v>0.64</v>
-      </c>
-      <c r="CJ11" s="2">
-        <v>0.221</v>
-      </c>
-    </row>
-    <row r="12" spans="1:88">
-      <c r="A12" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0.88</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0.22800000000000001</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0.47</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0.47799999999999998</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="I12" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="J12" s="2">
-        <v>0.19400000000000001</v>
-      </c>
-      <c r="K12" s="2">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="L12" s="2">
-        <v>0.46</v>
-      </c>
-      <c r="M12" s="2">
-        <v>0.40100000000000002</v>
-      </c>
-      <c r="N12" s="2">
-        <v>0.82</v>
-      </c>
-      <c r="O12" s="2">
-        <v>0.67</v>
-      </c>
-      <c r="P12" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="Q12" s="2">
-        <v>0.91</v>
-      </c>
-      <c r="R12" s="2">
-        <v>0.83</v>
-      </c>
-      <c r="S12" s="2">
-        <v>0.247</v>
-      </c>
-      <c r="T12" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="U12" s="2">
-        <v>0.37</v>
-      </c>
-      <c r="V12" s="2">
-        <v>0.19</v>
-      </c>
-      <c r="W12" s="2">
-        <v>0.62</v>
-      </c>
-      <c r="X12" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="Y12" s="2">
-        <v>0.19900000000000001</v>
-      </c>
-      <c r="Z12" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AA12" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="AB12" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="AC12" s="2">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="AD12" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AE12" s="2">
-        <v>0.26500000000000001</v>
-      </c>
-      <c r="AF12" s="2">
-        <v>0.22</v>
-      </c>
-      <c r="AG12" s="2">
-        <v>0.33</v>
-      </c>
-      <c r="AH12" s="2">
-        <v>0.20100000000000001</v>
-      </c>
-      <c r="AI12" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="AJ12" s="2">
-        <v>0.92</v>
-      </c>
-      <c r="AK12" s="2">
-        <v>0.19700000000000001</v>
-      </c>
-      <c r="AL12" s="2">
-        <v>0.71</v>
-      </c>
-      <c r="AM12" s="2">
-        <v>0.77</v>
-      </c>
-      <c r="AN12" s="2">
-        <v>0.22900000000000001</v>
-      </c>
-      <c r="AO12" s="2">
-        <v>0.62</v>
-      </c>
-      <c r="AP12" s="2">
-        <v>0.59</v>
-      </c>
-      <c r="AQ12" s="2">
-        <v>0.189</v>
-      </c>
-      <c r="AR12" s="2">
-        <v>0.69</v>
-      </c>
-      <c r="AS12" s="2">
-        <v>0.65</v>
-      </c>
-      <c r="AT12" s="2">
-        <v>0.193</v>
-      </c>
-      <c r="AU12" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="AV12" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="AW12" s="2">
-        <v>0.182</v>
-      </c>
-      <c r="AX12" s="2">
-        <v>0.76</v>
-      </c>
-      <c r="AY12" s="2">
-        <v>0.81</v>
-      </c>
-      <c r="AZ12" s="2">
-        <v>0.21</v>
-      </c>
-      <c r="BA12" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="BB12" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="BC12" s="2">
-        <v>0.216</v>
-      </c>
-      <c r="BD12" s="2">
-        <v>0.89</v>
-      </c>
-      <c r="BE12" s="2">
-        <v>0.71</v>
-      </c>
-      <c r="BF12" s="2">
-        <v>0.40100000000000002</v>
-      </c>
-      <c r="BG12" s="2">
-        <v>0.46</v>
-      </c>
-      <c r="BH12" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="BI12" s="2">
-        <v>0.182</v>
-      </c>
-      <c r="BJ12" s="2">
-        <v>0.54</v>
-      </c>
-      <c r="BK12" s="2">
-        <v>0.35</v>
-      </c>
-      <c r="BL12" s="2">
-        <v>0.23300000000000001</v>
-      </c>
-      <c r="BM12" s="2">
-        <v>0.67</v>
-      </c>
-      <c r="BN12" s="2">
-        <v>0.73</v>
-      </c>
-      <c r="BO12" s="2">
-        <v>0.20699999999999999</v>
-      </c>
-      <c r="BP12" s="2">
-        <v>0.88</v>
-      </c>
-      <c r="BQ12" s="2">
-        <v>0.88</v>
-      </c>
-      <c r="BR12" s="2">
-        <v>0.33800000000000002</v>
-      </c>
-      <c r="BS12" s="2">
-        <v>0.67</v>
-      </c>
-      <c r="BT12" s="2">
-        <v>0.77</v>
-      </c>
-      <c r="BU12" s="2">
-        <v>0.40200000000000002</v>
-      </c>
-      <c r="BV12" s="2">
-        <v>0.79</v>
-      </c>
-      <c r="BW12" s="2">
-        <v>0.83</v>
-      </c>
-      <c r="BX12" s="2">
-        <v>0.72699999999999998</v>
-      </c>
-      <c r="BY12" s="2">
-        <v>0.48</v>
-      </c>
-      <c r="BZ12" s="2">
-        <v>0.48</v>
-      </c>
-      <c r="CA12" s="2">
-        <v>0.92400000000000004</v>
-      </c>
-      <c r="CB12" s="2">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="CC12" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="CD12" s="2">
-        <v>0.24</v>
-      </c>
-      <c r="CE12" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="CF12" s="2">
-        <v>0.53</v>
-      </c>
-      <c r="CG12" s="2">
-        <v>0.64700000000000002</v>
-      </c>
-      <c r="CH12" s="2">
-        <v>0.54</v>
-      </c>
-      <c r="CI12" s="2">
-        <v>0.64</v>
-      </c>
-      <c r="CJ12" s="2">
-        <v>0.216</v>
-      </c>
-    </row>
-    <row r="13" spans="1:88">
-      <c r="A13" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0.88</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0.221</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0.47</v>
-      </c>
-      <c r="F13" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="G13" s="2">
-        <v>0.31</v>
-      </c>
-      <c r="H13" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="I13" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="J13" s="2">
-        <v>0.189</v>
-      </c>
-      <c r="K13" s="2">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="L13" s="2">
-        <v>0.46</v>
-      </c>
-      <c r="M13" s="2">
-        <v>0.42599999999999999</v>
-      </c>
-      <c r="N13" s="2">
-        <v>0.82</v>
-      </c>
-      <c r="O13" s="2">
-        <v>0.67</v>
-      </c>
-      <c r="P13" s="2">
-        <v>0.187</v>
-      </c>
-      <c r="Q13" s="2">
-        <v>0.91</v>
-      </c>
-      <c r="R13" s="2">
-        <v>0.83</v>
-      </c>
-      <c r="S13" s="2">
-        <v>0.24</v>
-      </c>
-      <c r="T13" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="U13" s="2">
-        <v>0.37</v>
-      </c>
-      <c r="V13" s="2">
-        <v>0.189</v>
-      </c>
-      <c r="W13" s="2">
-        <v>0.62</v>
-      </c>
-      <c r="X13" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="Y13" s="2">
-        <v>0.19500000000000001</v>
-      </c>
-      <c r="Z13" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AA13" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="AB13" s="2">
-        <v>0.17299999999999999</v>
-      </c>
-      <c r="AC13" s="2">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="AD13" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AE13" s="2">
-        <v>0.27100000000000002</v>
-      </c>
-      <c r="AF13" s="2">
-        <v>0.22</v>
-      </c>
-      <c r="AG13" s="2">
-        <v>0.33</v>
-      </c>
-      <c r="AH13" s="2">
-        <v>0.23100000000000001</v>
-      </c>
-      <c r="AI13" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="AJ13" s="2">
-        <v>0.92</v>
-      </c>
-      <c r="AK13" s="2">
-        <v>0.19600000000000001</v>
-      </c>
-      <c r="AL13" s="2">
-        <v>0.71</v>
-      </c>
-      <c r="AM13" s="2">
-        <v>0.77</v>
-      </c>
-      <c r="AN13" s="2">
-        <v>0.25600000000000001</v>
-      </c>
-      <c r="AO13" s="2">
-        <v>0.62</v>
-      </c>
-      <c r="AP13" s="2">
-        <v>0.59</v>
-      </c>
-      <c r="AQ13" s="2">
-        <v>0.19400000000000001</v>
-      </c>
-      <c r="AR13" s="2">
-        <v>0.69</v>
-      </c>
-      <c r="AS13" s="2">
-        <v>0.65</v>
-      </c>
-      <c r="AT13" s="2">
-        <v>0.193</v>
-      </c>
-      <c r="AU13" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="AV13" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="AW13" s="2">
-        <v>0.19600000000000001</v>
-      </c>
-      <c r="AX13" s="2">
-        <v>0.76</v>
-      </c>
-      <c r="AY13" s="2">
-        <v>0.81</v>
-      </c>
-      <c r="AZ13" s="2">
-        <v>0.218</v>
-      </c>
-      <c r="BA13" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="BB13" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="BC13" s="2">
-        <v>0.22700000000000001</v>
-      </c>
-      <c r="BD13" s="2">
-        <v>0.89</v>
-      </c>
-      <c r="BE13" s="2">
-        <v>0.71</v>
-      </c>
-      <c r="BF13" s="2">
-        <v>0.26600000000000001</v>
-      </c>
-      <c r="BG13" s="2">
-        <v>0.46</v>
-      </c>
-      <c r="BH13" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="BI13" s="2">
-        <v>0.20200000000000001</v>
-      </c>
-      <c r="BJ13" s="2">
-        <v>0.54</v>
-      </c>
-      <c r="BK13" s="2">
-        <v>0.35</v>
-      </c>
-      <c r="BL13" s="2">
-        <v>0.251</v>
-      </c>
-      <c r="BM13" s="2">
-        <v>0.67</v>
-      </c>
-      <c r="BN13" s="2">
-        <v>0.73</v>
-      </c>
-      <c r="BO13" s="2">
-        <v>0.19400000000000001</v>
-      </c>
-      <c r="BP13" s="2">
-        <v>0.88</v>
-      </c>
-      <c r="BQ13" s="2">
-        <v>0.88</v>
-      </c>
-      <c r="BR13" s="2">
-        <v>0.30499999999999999</v>
-      </c>
-      <c r="BS13" s="2">
-        <v>0.67</v>
-      </c>
-      <c r="BT13" s="2">
-        <v>0.77</v>
-      </c>
-      <c r="BU13" s="2">
-        <v>0.34399999999999997</v>
-      </c>
-      <c r="BV13" s="2">
-        <v>0.79</v>
-      </c>
-      <c r="BW13" s="2">
-        <v>0.83</v>
-      </c>
-      <c r="BX13" s="2">
-        <v>0.65400000000000003</v>
-      </c>
-      <c r="BY13" s="2">
-        <v>0.48</v>
-      </c>
-      <c r="BZ13" s="2">
-        <v>0.48</v>
-      </c>
-      <c r="CA13" s="2">
-        <v>1.155</v>
-      </c>
-      <c r="CB13" s="2">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="CC13" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="CD13" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="CE13" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="CF13" s="2">
-        <v>0.53</v>
-      </c>
-      <c r="CG13" s="2">
-        <v>0.32900000000000001</v>
-      </c>
-      <c r="CH13" s="2">
-        <v>0.54</v>
-      </c>
-      <c r="CI13" s="2">
-        <v>0.64</v>
-      </c>
-      <c r="CJ13" s="2">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:88">
-      <c r="A14" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0.88</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0.223</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0.47</v>
-      </c>
-      <c r="F14" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="G14" s="2">
-        <v>0.27100000000000002</v>
-      </c>
-      <c r="H14" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="I14" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="J14" s="2">
-        <v>0.185</v>
-      </c>
-      <c r="K14" s="2">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="L14" s="2">
-        <v>0.46</v>
-      </c>
-      <c r="M14" s="2">
-        <v>0.42099999999999999</v>
-      </c>
-      <c r="N14" s="2">
-        <v>0.82</v>
-      </c>
-      <c r="O14" s="2">
-        <v>0.67</v>
-      </c>
-      <c r="P14" s="2">
-        <v>0.19900000000000001</v>
-      </c>
-      <c r="Q14" s="2">
-        <v>0.91</v>
-      </c>
-      <c r="R14" s="2">
-        <v>0.83</v>
-      </c>
-      <c r="S14" s="2">
-        <v>0.247</v>
-      </c>
-      <c r="T14" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="U14" s="2">
-        <v>0.37</v>
-      </c>
-      <c r="V14" s="2">
-        <v>0.20499999999999999</v>
-      </c>
-      <c r="W14" s="2">
-        <v>0.62</v>
-      </c>
-      <c r="X14" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="Y14" s="2">
-        <v>0.33700000000000002</v>
-      </c>
-      <c r="Z14" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AA14" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="AB14" s="2">
-        <v>0.156</v>
-      </c>
-      <c r="AC14" s="2">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="AD14" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AE14" s="2">
-        <v>0.28499999999999998</v>
-      </c>
-      <c r="AF14" s="2">
-        <v>0.22</v>
-      </c>
-      <c r="AG14" s="2">
-        <v>0.33</v>
-      </c>
-      <c r="AH14" s="2">
-        <v>0.34499999999999997</v>
-      </c>
-      <c r="AI14" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="AJ14" s="2">
-        <v>0.92</v>
-      </c>
-      <c r="AK14" s="2">
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="AL14" s="2">
-        <v>0.71</v>
-      </c>
-      <c r="AM14" s="2">
-        <v>0.77</v>
-      </c>
-      <c r="AN14" s="2">
-        <v>0.22700000000000001</v>
-      </c>
-      <c r="AO14" s="2">
-        <v>0.62</v>
-      </c>
-      <c r="AP14" s="2">
-        <v>0.59</v>
-      </c>
-      <c r="AQ14" s="2">
-        <v>0.20599999999999999</v>
-      </c>
-      <c r="AR14" s="2">
-        <v>0.69</v>
-      </c>
-      <c r="AS14" s="2">
-        <v>0.65</v>
-      </c>
-      <c r="AT14" s="2">
-        <v>0.19700000000000001</v>
-      </c>
-      <c r="AU14" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="AV14" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="AW14" s="2">
-        <v>0.19500000000000001</v>
-      </c>
-      <c r="AX14" s="2">
-        <v>0.76</v>
-      </c>
-      <c r="AY14" s="2">
-        <v>0.81</v>
-      </c>
-      <c r="AZ14" s="2">
-        <v>0.22</v>
-      </c>
-      <c r="BA14" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="BB14" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="BC14" s="2">
-        <v>0.22600000000000001</v>
-      </c>
-      <c r="BD14" s="2">
-        <v>0.89</v>
-      </c>
-      <c r="BE14" s="2">
-        <v>0.71</v>
-      </c>
-      <c r="BF14" s="2">
-        <v>0.25600000000000001</v>
-      </c>
-      <c r="BG14" s="2">
-        <v>0.46</v>
-      </c>
-      <c r="BH14" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="BI14" s="2">
-        <v>0.19900000000000001</v>
-      </c>
-      <c r="BJ14" s="2">
-        <v>0.54</v>
-      </c>
-      <c r="BK14" s="2">
-        <v>0.35</v>
-      </c>
-      <c r="BL14" s="2">
-        <v>0.24</v>
-      </c>
-      <c r="BM14" s="2">
-        <v>0.67</v>
-      </c>
-      <c r="BN14" s="2">
-        <v>0.73</v>
-      </c>
-      <c r="BO14" s="2">
-        <v>0.19800000000000001</v>
-      </c>
-      <c r="BP14" s="2">
-        <v>0.88</v>
-      </c>
-      <c r="BQ14" s="2">
-        <v>0.88</v>
-      </c>
-      <c r="BR14" s="2">
-        <v>0.44900000000000001</v>
-      </c>
-      <c r="BS14" s="2">
-        <v>0.67</v>
-      </c>
-      <c r="BT14" s="2">
-        <v>0.77</v>
-      </c>
-      <c r="BU14" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="BV14" s="2">
-        <v>0.79</v>
-      </c>
-      <c r="BW14" s="2">
-        <v>0.83</v>
-      </c>
-      <c r="BX14" s="2">
-        <v>0.68400000000000005</v>
-      </c>
-      <c r="BY14" s="2">
-        <v>0.48</v>
-      </c>
-      <c r="BZ14" s="2">
-        <v>0.48</v>
-      </c>
-      <c r="CA14" s="2">
-        <v>1.0529999999999999</v>
-      </c>
-      <c r="CB14" s="2">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="CC14" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="CD14" s="2">
-        <v>0.24199999999999999</v>
-      </c>
-      <c r="CE14" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="CF14" s="2">
-        <v>0.53</v>
-      </c>
-      <c r="CG14" s="2">
-        <v>0.35299999999999998</v>
-      </c>
-      <c r="CH14" s="2">
-        <v>0.54</v>
-      </c>
-      <c r="CI14" s="2">
-        <v>0.64</v>
-      </c>
-      <c r="CJ14" s="2">
-        <v>0.25700000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:88">
-      <c r="A15" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0.88</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0.214</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0.47</v>
-      </c>
-      <c r="F15" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="G15" s="2">
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="H15" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="I15" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="J15" s="2">
-        <v>0.20399999999999999</v>
-      </c>
-      <c r="K15" s="2">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="L15" s="2">
-        <v>0.46</v>
-      </c>
-      <c r="M15" s="2">
-        <v>0.41199999999999998</v>
-      </c>
-      <c r="N15" s="2">
-        <v>0.82</v>
-      </c>
-      <c r="O15" s="2">
-        <v>0.67</v>
-      </c>
-      <c r="P15" s="2">
-        <v>0.19700000000000001</v>
-      </c>
-      <c r="Q15" s="2">
-        <v>0.91</v>
-      </c>
-      <c r="R15" s="2">
-        <v>0.83</v>
-      </c>
-      <c r="S15" s="2">
-        <v>0.24399999999999999</v>
-      </c>
-      <c r="T15" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="U15" s="2">
-        <v>0.37</v>
-      </c>
-      <c r="V15" s="2">
-        <v>0.188</v>
-      </c>
-      <c r="W15" s="2">
-        <v>0.62</v>
-      </c>
-      <c r="X15" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="Y15" s="2">
-        <v>0.188</v>
-      </c>
-      <c r="Z15" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AA15" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="AB15" s="2">
-        <v>0.17199999999999999</v>
-      </c>
-      <c r="AC15" s="2">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="AD15" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AE15" s="2">
-        <v>0.27800000000000002</v>
-      </c>
-      <c r="AF15" s="2">
-        <v>0.22</v>
-      </c>
-      <c r="AG15" s="2">
-        <v>0.33</v>
-      </c>
-      <c r="AH15" s="2">
-        <v>0.38300000000000001</v>
-      </c>
-      <c r="AI15" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="AJ15" s="2">
-        <v>0.92</v>
-      </c>
-      <c r="AK15" s="2">
-        <v>0.219</v>
-      </c>
-      <c r="AL15" s="2">
-        <v>0.71</v>
-      </c>
-      <c r="AM15" s="2">
-        <v>0.77</v>
-      </c>
-      <c r="AN15" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="AO15" s="2">
-        <v>0.62</v>
-      </c>
-      <c r="AP15" s="2">
-        <v>0.59</v>
-      </c>
-      <c r="AQ15" s="2">
-        <v>0.20399999999999999</v>
-      </c>
-      <c r="AR15" s="2">
-        <v>0.69</v>
-      </c>
-      <c r="AS15" s="2">
-        <v>0.65</v>
-      </c>
-      <c r="AT15" s="2">
-        <v>0.223</v>
-      </c>
-      <c r="AU15" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="AV15" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="AW15" s="2">
-        <v>0.20699999999999999</v>
-      </c>
-      <c r="AX15" s="2">
-        <v>0.76</v>
-      </c>
-      <c r="AY15" s="2">
-        <v>0.81</v>
-      </c>
-      <c r="AZ15" s="2">
-        <v>0.219</v>
-      </c>
-      <c r="BA15" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="BB15" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="BC15" s="2">
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="BD15" s="2">
-        <v>0.89</v>
-      </c>
-      <c r="BE15" s="2">
-        <v>0.71</v>
-      </c>
-      <c r="BF15" s="2">
-        <v>0.255</v>
-      </c>
-      <c r="BG15" s="2">
-        <v>0.46</v>
-      </c>
-      <c r="BH15" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="BI15" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="BJ15" s="2">
-        <v>0.54</v>
-      </c>
-      <c r="BK15" s="2">
-        <v>0.35</v>
-      </c>
-      <c r="BL15" s="2">
-        <v>0.254</v>
-      </c>
-      <c r="BM15" s="2">
-        <v>0.67</v>
-      </c>
-      <c r="BN15" s="2">
-        <v>0.73</v>
-      </c>
-      <c r="BO15" s="2">
-        <v>0.21099999999999999</v>
-      </c>
-      <c r="BP15" s="2">
-        <v>0.88</v>
-      </c>
-      <c r="BQ15" s="2">
-        <v>0.88</v>
-      </c>
-      <c r="BR15" s="2">
-        <v>0.32500000000000001</v>
-      </c>
-      <c r="BS15" s="2">
-        <v>0.67</v>
-      </c>
-      <c r="BT15" s="2">
-        <v>0.77</v>
-      </c>
-      <c r="BU15" s="2">
-        <v>0.33800000000000002</v>
-      </c>
-      <c r="BV15" s="2">
-        <v>0.79</v>
-      </c>
-      <c r="BW15" s="2">
-        <v>0.83</v>
-      </c>
-      <c r="BX15" s="2">
-        <v>0.63200000000000001</v>
-      </c>
-      <c r="BY15" s="2">
-        <v>0.48</v>
-      </c>
-      <c r="BZ15" s="2">
-        <v>0.48</v>
-      </c>
-      <c r="CA15" s="2">
-        <v>1.139</v>
-      </c>
-      <c r="CB15" s="2">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="CC15" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="CD15" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="CE15" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="CF15" s="2">
-        <v>0.53</v>
-      </c>
-      <c r="CG15" s="2">
-        <v>0.39200000000000002</v>
-      </c>
-      <c r="CH15" s="2">
-        <v>0.54</v>
-      </c>
-      <c r="CI15" s="2">
-        <v>0.64</v>
-      </c>
-      <c r="CJ15" s="2">
-        <v>0.247</v>
-      </c>
-    </row>
-    <row r="16" spans="1:88">
-      <c r="A16" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0.88</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0.22</v>
-      </c>
-      <c r="E16" s="2">
-        <v>0.47</v>
-      </c>
-      <c r="F16" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="G16" s="2">
-        <v>0.24299999999999999</v>
-      </c>
-      <c r="H16" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="I16" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="J16" s="2">
-        <v>0.35</v>
-      </c>
-      <c r="K16" s="2">
-        <v>0.68</v>
-      </c>
-      <c r="L16" s="2">
-        <v>0.54</v>
-      </c>
-      <c r="M16" s="2">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="N16" s="2">
-        <v>0.82</v>
-      </c>
-      <c r="O16" s="2">
-        <v>0.67</v>
-      </c>
-      <c r="P16" s="2">
-        <v>0.20399999999999999</v>
-      </c>
-      <c r="Q16" s="2">
-        <v>0.86</v>
-      </c>
-      <c r="R16" s="2">
-        <v>0.79</v>
-      </c>
-      <c r="S16" s="2">
-        <v>0.29599999999999999</v>
-      </c>
-      <c r="T16" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="U16" s="2">
-        <v>0.37</v>
-      </c>
-      <c r="V16" s="2">
-        <v>0.21199999999999999</v>
-      </c>
-      <c r="W16" s="2">
-        <v>0.62</v>
-      </c>
-      <c r="X16" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="Y16" s="2">
-        <v>0.19800000000000001</v>
-      </c>
-      <c r="Z16" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AA16" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="AB16" s="2">
-        <v>0.17799999999999999</v>
-      </c>
-      <c r="AC16" s="2">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="AD16" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AE16" s="2">
-        <v>0.30499999999999999</v>
-      </c>
-      <c r="AF16" s="2">
-        <v>0.22</v>
-      </c>
-      <c r="AG16" s="2">
-        <v>0.33</v>
-      </c>
-      <c r="AH16" s="2">
-        <v>0.32300000000000001</v>
-      </c>
-      <c r="AI16" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="AJ16" s="2">
-        <v>0.92</v>
-      </c>
-      <c r="AK16" s="2">
-        <v>0.217</v>
-      </c>
-      <c r="AL16" s="2">
-        <v>0.71</v>
-      </c>
-      <c r="AM16" s="2">
-        <v>0.77</v>
-      </c>
-      <c r="AN16" s="2">
-        <v>0.217</v>
-      </c>
-      <c r="AO16" s="2">
-        <v>0.62</v>
-      </c>
-      <c r="AP16" s="2">
-        <v>0.59</v>
-      </c>
-      <c r="AQ16" s="2">
-        <v>0.20899999999999999</v>
-      </c>
-      <c r="AR16" s="2">
-        <v>0.69</v>
-      </c>
-      <c r="AS16" s="2">
-        <v>0.65</v>
-      </c>
-      <c r="AT16" s="2">
-        <v>0.20699999999999999</v>
-      </c>
-      <c r="AU16" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="AV16" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="AW16" s="2">
-        <v>0.21</v>
-      </c>
-      <c r="AX16" s="2">
-        <v>0.76</v>
-      </c>
-      <c r="AY16" s="2">
-        <v>0.81</v>
-      </c>
-      <c r="AZ16" s="2">
-        <v>0.222</v>
-      </c>
-      <c r="BA16" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="BB16" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="BC16" s="2">
-        <v>0.24099999999999999</v>
-      </c>
-      <c r="BD16" s="2">
-        <v>0.89</v>
-      </c>
-      <c r="BE16" s="2">
-        <v>0.71</v>
-      </c>
-      <c r="BF16" s="2">
-        <v>0.26900000000000002</v>
-      </c>
-      <c r="BG16" s="2">
-        <v>0.46</v>
-      </c>
-      <c r="BH16" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="BI16" s="2">
-        <v>0.214</v>
-      </c>
-      <c r="BJ16" s="2">
-        <v>0.54</v>
-      </c>
-      <c r="BK16" s="2">
-        <v>0.35</v>
-      </c>
-      <c r="BL16" s="2">
-        <v>0.251</v>
-      </c>
-      <c r="BM16" s="2">
-        <v>0.67</v>
-      </c>
-      <c r="BN16" s="2">
-        <v>0.73</v>
-      </c>
-      <c r="BO16" s="2">
-        <v>0.215</v>
-      </c>
-      <c r="BP16" s="2">
-        <v>0.88</v>
-      </c>
-      <c r="BQ16" s="2">
-        <v>0.88</v>
-      </c>
-      <c r="BR16" s="2">
-        <v>0.434</v>
-      </c>
-      <c r="BS16" s="2">
-        <v>0.67</v>
-      </c>
-      <c r="BT16" s="2">
-        <v>0.77</v>
-      </c>
-      <c r="BU16" s="2">
-        <v>0.32800000000000001</v>
-      </c>
-      <c r="BV16" s="2">
-        <v>0.79</v>
-      </c>
-      <c r="BW16" s="2">
-        <v>0.83</v>
-      </c>
-      <c r="BX16" s="2">
-        <v>0.70899999999999996</v>
-      </c>
-      <c r="BY16" s="2">
-        <v>0.48</v>
-      </c>
-      <c r="BZ16" s="2">
-        <v>0.48</v>
-      </c>
-      <c r="CA16" s="2">
-        <v>0.74199999999999999</v>
-      </c>
-      <c r="CB16" s="2">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="CC16" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="CD16" s="2">
-        <v>0.25900000000000001</v>
-      </c>
-      <c r="CE16" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="CF16" s="2">
-        <v>0.53</v>
-      </c>
-      <c r="CG16" s="2">
-        <v>0.36699999999999999</v>
-      </c>
-      <c r="CH16" s="2">
-        <v>0.54</v>
-      </c>
-      <c r="CI16" s="2">
-        <v>0.64</v>
-      </c>
-      <c r="CJ16" s="2">
-        <v>0.251</v>
-      </c>
-    </row>
-    <row r="17" spans="1:88">
-      <c r="A17" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="C17" s="2">
-        <v>0.88</v>
-      </c>
-      <c r="D17" s="2">
-        <v>0.23</v>
-      </c>
-      <c r="E17" s="2">
-        <v>0.47</v>
-      </c>
-      <c r="F17" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="G17" s="2">
-        <v>0.24399999999999999</v>
-      </c>
-      <c r="H17" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="I17" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="J17" s="2">
-        <v>0.218</v>
-      </c>
-      <c r="K17" s="2">
-        <v>0.68</v>
-      </c>
-      <c r="L17" s="2">
-        <v>0.54</v>
-      </c>
-      <c r="M17" s="2">
-        <v>0.23</v>
-      </c>
-      <c r="N17" s="2">
-        <v>0.82</v>
-      </c>
-      <c r="O17" s="2">
-        <v>0.67</v>
-      </c>
-      <c r="P17" s="2">
-        <v>0.216</v>
-      </c>
-      <c r="Q17" s="2">
-        <v>0.86</v>
-      </c>
-      <c r="R17" s="2">
-        <v>0.79</v>
-      </c>
-      <c r="S17" s="2">
-        <v>0.312</v>
-      </c>
-      <c r="T17" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="U17" s="2">
-        <v>0.37</v>
-      </c>
-      <c r="V17" s="2">
-        <v>0.22700000000000001</v>
-      </c>
-      <c r="W17" s="2">
-        <v>0.62</v>
-      </c>
-      <c r="X17" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="Y17" s="2">
-        <v>0.216</v>
-      </c>
-      <c r="Z17" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AA17" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="AB17" s="2">
-        <v>0.186</v>
-      </c>
-      <c r="AC17" s="2">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="AD17" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AE17" s="2">
-        <v>0.29899999999999999</v>
-      </c>
-      <c r="AF17" s="2">
-        <v>0.22</v>
-      </c>
-      <c r="AG17" s="2">
-        <v>0.33</v>
-      </c>
-      <c r="AH17" s="2">
-        <v>0.245</v>
-      </c>
-      <c r="AI17" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="AJ17" s="2">
-        <v>0.92</v>
-      </c>
-      <c r="AK17" s="2">
-        <v>0.23699999999999999</v>
-      </c>
-      <c r="AL17" s="2">
-        <v>0.71</v>
-      </c>
-      <c r="AM17" s="2">
-        <v>0.77</v>
-      </c>
-      <c r="AN17" s="2">
-        <v>0.23599999999999999</v>
-      </c>
-      <c r="AO17" s="2">
-        <v>0.62</v>
-      </c>
-      <c r="AP17" s="2">
-        <v>0.59</v>
-      </c>
-      <c r="AQ17" s="2">
-        <v>0.21199999999999999</v>
-      </c>
-      <c r="AR17" s="2">
-        <v>0.69</v>
-      </c>
-      <c r="AS17" s="2">
-        <v>0.65</v>
-      </c>
-      <c r="AT17" s="2">
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="AU17" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="AV17" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="AW17" s="2">
-        <v>0.36499999999999999</v>
-      </c>
-      <c r="AX17" s="2">
-        <v>0.76</v>
-      </c>
-      <c r="AY17" s="2">
-        <v>0.81</v>
-      </c>
-      <c r="AZ17" s="2">
-        <v>0.26400000000000001</v>
-      </c>
-      <c r="BA17" s="2">
-        <v>0.33</v>
-      </c>
-      <c r="BB17" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="BC17" s="2">
-        <v>0.252</v>
-      </c>
-      <c r="BD17" s="2">
-        <v>0.89</v>
-      </c>
-      <c r="BE17" s="2">
-        <v>0.71</v>
-      </c>
-      <c r="BF17" s="2">
-        <v>0.26200000000000001</v>
-      </c>
-      <c r="BG17" s="2">
-        <v>0.46</v>
-      </c>
-      <c r="BH17" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="BI17" s="2">
-        <v>0.214</v>
-      </c>
-      <c r="BJ17" s="2">
-        <v>0.54</v>
-      </c>
-      <c r="BK17" s="2">
-        <v>0.35</v>
-      </c>
-      <c r="BL17" s="2">
-        <v>0.26700000000000002</v>
-      </c>
-      <c r="BM17" s="2">
-        <v>0.67</v>
-      </c>
-      <c r="BN17" s="2">
-        <v>0.73</v>
-      </c>
-      <c r="BO17" s="2">
-        <v>0.215</v>
-      </c>
-      <c r="BP17" s="2">
-        <v>0.88</v>
-      </c>
-      <c r="BQ17" s="2">
-        <v>0.88</v>
-      </c>
-      <c r="BR17" s="2">
-        <v>0.46400000000000002</v>
-      </c>
-      <c r="BS17" s="2">
-        <v>0.67</v>
-      </c>
-      <c r="BT17" s="2">
-        <v>0.77</v>
-      </c>
-      <c r="BU17" s="2">
-        <v>0.37</v>
-      </c>
-      <c r="BV17" s="2">
-        <v>0.79</v>
-      </c>
-      <c r="BW17" s="2">
-        <v>0.83</v>
-      </c>
-      <c r="BX17" s="2">
-        <v>0.82799999999999996</v>
-      </c>
-      <c r="BY17" s="2">
-        <v>0.48</v>
-      </c>
-      <c r="BZ17" s="2">
-        <v>0.48</v>
-      </c>
-      <c r="CA17" s="2">
-        <v>0.61399999999999999</v>
-      </c>
-      <c r="CB17" s="2">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="CC17" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="CD17" s="2">
-        <v>0.28100000000000003</v>
-      </c>
-      <c r="CE17" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="CF17" s="2">
-        <v>0.53</v>
-      </c>
-      <c r="CG17" s="2">
-        <v>0.308</v>
-      </c>
-      <c r="CH17" s="2">
-        <v>0.54</v>
-      </c>
-      <c r="CI17" s="2">
-        <v>0.64</v>
-      </c>
-      <c r="CJ17" s="2">
-        <v>0.26800000000000002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:88">
-      <c r="A18" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="C18" s="2">
-        <v>0.88</v>
-      </c>
-      <c r="D18" s="2">
-        <v>0.23699999999999999</v>
-      </c>
-      <c r="E18" s="2">
-        <v>0.47</v>
-      </c>
-      <c r="F18" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="G18" s="2">
-        <v>0.24299999999999999</v>
-      </c>
-      <c r="H18" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="I18" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="J18" s="2">
-        <v>0.22700000000000001</v>
-      </c>
-      <c r="K18" s="2">
-        <v>0.68</v>
-      </c>
-      <c r="L18" s="2">
-        <v>0.54</v>
-      </c>
-      <c r="M18" s="2">
-        <v>0.24299999999999999</v>
-      </c>
-      <c r="N18" s="2">
-        <v>0.82</v>
-      </c>
-      <c r="O18" s="2">
-        <v>0.67</v>
-      </c>
-      <c r="P18" s="2">
-        <v>0.23599999999999999</v>
-      </c>
-      <c r="Q18" s="2">
-        <v>0.86</v>
-      </c>
-      <c r="R18" s="2">
-        <v>0.79</v>
-      </c>
-      <c r="S18" s="2">
-        <v>0.32500000000000001</v>
-      </c>
-      <c r="T18" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="U18" s="2">
-        <v>0.37</v>
-      </c>
-      <c r="V18" s="2">
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="W18" s="2">
-        <v>0.62</v>
-      </c>
-      <c r="X18" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="Y18" s="2">
-        <v>0.215</v>
-      </c>
-      <c r="Z18" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AA18" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="AB18" s="2">
-        <v>0.193</v>
-      </c>
-      <c r="AC18" s="2">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="AD18" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AE18" s="2">
-        <v>0.29799999999999999</v>
-      </c>
-      <c r="AF18" s="2">
-        <v>0.22</v>
-      </c>
-      <c r="AG18" s="2">
-        <v>0.33</v>
-      </c>
-      <c r="AH18" s="2">
-        <v>0.23899999999999999</v>
-      </c>
-      <c r="AI18" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="AJ18" s="2">
-        <v>0.92</v>
-      </c>
-      <c r="AK18" s="2">
-        <v>0.27300000000000002</v>
-      </c>
-      <c r="AL18" s="2">
-        <v>0.71</v>
-      </c>
-      <c r="AM18" s="2">
-        <v>0.77</v>
-      </c>
-      <c r="AN18" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="AO18" s="2">
-        <v>0.62</v>
-      </c>
-      <c r="AP18" s="2">
-        <v>0.59</v>
-      </c>
-      <c r="AQ18" s="2">
-        <v>0.22</v>
-      </c>
-      <c r="AR18" s="2">
-        <v>0.69</v>
-      </c>
-      <c r="AS18" s="2">
-        <v>0.65</v>
-      </c>
-      <c r="AT18" s="2">
-        <v>0.23100000000000001</v>
-      </c>
-      <c r="AU18" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="AV18" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="AW18" s="2">
-        <v>0.221</v>
-      </c>
-      <c r="AX18" s="2">
-        <v>0.76</v>
-      </c>
-      <c r="AY18" s="2">
-        <v>0.81</v>
-      </c>
-      <c r="AZ18" s="2">
-        <v>0.26800000000000002</v>
-      </c>
-      <c r="BA18" s="2">
-        <v>0.33</v>
-      </c>
-      <c r="BB18" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="BC18" s="2">
-        <v>0.251</v>
-      </c>
-      <c r="BD18" s="2">
-        <v>0.89</v>
-      </c>
-      <c r="BE18" s="2">
-        <v>0.71</v>
-      </c>
-      <c r="BF18" s="2">
-        <v>0.27300000000000002</v>
-      </c>
-      <c r="BG18" s="2">
-        <v>0.46</v>
-      </c>
-      <c r="BH18" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="BI18" s="2">
-        <v>0.22800000000000001</v>
-      </c>
-      <c r="BJ18" s="2">
-        <v>0.54</v>
-      </c>
-      <c r="BK18" s="2">
-        <v>0.35</v>
-      </c>
-      <c r="BL18" s="2">
-        <v>0.28299999999999997</v>
-      </c>
-      <c r="BM18" s="2">
-        <v>0.67</v>
-      </c>
-      <c r="BN18" s="2">
-        <v>0.73</v>
-      </c>
-      <c r="BO18" s="2">
-        <v>0.22900000000000001</v>
-      </c>
-      <c r="BP18" s="2">
-        <v>0.88</v>
-      </c>
-      <c r="BQ18" s="2">
-        <v>0.88</v>
-      </c>
-      <c r="BR18" s="2">
-        <v>0.47099999999999997</v>
-      </c>
-      <c r="BS18" s="2">
-        <v>0.67</v>
-      </c>
-      <c r="BT18" s="2">
-        <v>0.77</v>
-      </c>
-      <c r="BU18" s="2">
-        <v>0.45700000000000002</v>
-      </c>
-      <c r="BV18" s="2">
-        <v>0.79</v>
-      </c>
-      <c r="BW18" s="2">
-        <v>0.83</v>
-      </c>
-      <c r="BX18" s="2">
-        <v>0.61</v>
-      </c>
-      <c r="BY18" s="2">
-        <v>0.48</v>
-      </c>
-      <c r="BZ18" s="2">
-        <v>0.48</v>
-      </c>
-      <c r="CA18" s="2">
-        <v>0.53500000000000003</v>
-      </c>
-      <c r="CB18" s="2">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="CC18" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="CD18" s="2">
-        <v>0.27700000000000002</v>
-      </c>
-      <c r="CE18" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="CF18" s="2">
-        <v>0.53</v>
-      </c>
-      <c r="CG18" s="2">
-        <v>0.32200000000000001</v>
-      </c>
-      <c r="CH18" s="2">
-        <v>0.54</v>
-      </c>
-      <c r="CI18" s="2">
-        <v>0.64</v>
-      </c>
-      <c r="CJ18" s="2">
-        <v>0.29499999999999998</v>
-      </c>
-    </row>
-    <row r="19" spans="1:88">
-      <c r="A19" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="C19" s="2">
-        <v>0.88</v>
-      </c>
-      <c r="D19" s="2">
-        <v>0.25600000000000001</v>
-      </c>
-      <c r="E19" s="2">
-        <v>0.47</v>
-      </c>
-      <c r="F19" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="G19" s="2">
-        <v>0.25900000000000001</v>
-      </c>
-      <c r="H19" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="I19" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="J19" s="2">
-        <v>0.216</v>
-      </c>
-      <c r="K19" s="2">
-        <v>0.63</v>
-      </c>
-      <c r="L19" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="M19" s="2">
-        <v>0.438</v>
-      </c>
-      <c r="N19" s="2">
-        <v>0.82</v>
-      </c>
-      <c r="O19" s="2">
-        <v>0.67</v>
-      </c>
-      <c r="P19" s="2">
-        <v>0.27100000000000002</v>
-      </c>
-      <c r="Q19" s="2">
-        <v>0.86</v>
-      </c>
-      <c r="R19" s="2">
-        <v>0.79</v>
-      </c>
-      <c r="S19" s="2">
-        <v>0.33100000000000002</v>
-      </c>
-      <c r="T19" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="U19" s="2">
-        <v>0.37</v>
-      </c>
-      <c r="V19" s="2">
-        <v>0.22800000000000001</v>
-      </c>
-      <c r="W19" s="2">
-        <v>0.62</v>
-      </c>
-      <c r="X19" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="Y19" s="2">
-        <v>0.224</v>
-      </c>
-      <c r="Z19" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AA19" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="AB19" s="2">
-        <v>0.19700000000000001</v>
-      </c>
-      <c r="AC19" s="2">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="AD19" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AE19" s="2">
-        <v>0.312</v>
-      </c>
-      <c r="AF19" s="2">
-        <v>0.22</v>
-      </c>
-      <c r="AG19" s="2">
-        <v>0.33</v>
-      </c>
-      <c r="AH19" s="2">
-        <v>0.245</v>
-      </c>
-      <c r="AI19" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="AJ19" s="2">
-        <v>0.92</v>
-      </c>
-      <c r="AK19" s="2">
-        <v>0.25700000000000001</v>
-      </c>
-      <c r="AL19" s="2">
-        <v>0.71</v>
-      </c>
-      <c r="AM19" s="2">
-        <v>0.77</v>
-      </c>
-      <c r="AN19" s="2">
-        <v>0.24299999999999999</v>
-      </c>
-      <c r="AO19" s="2">
-        <v>0.62</v>
-      </c>
-      <c r="AP19" s="2">
-        <v>0.59</v>
-      </c>
-      <c r="AQ19" s="2">
-        <v>0.249</v>
-      </c>
-      <c r="AR19" s="2">
-        <v>0.69</v>
-      </c>
-      <c r="AS19" s="2">
-        <v>0.65</v>
-      </c>
-      <c r="AT19" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="AU19" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="AV19" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="AW19" s="2">
-        <v>0.23100000000000001</v>
-      </c>
-      <c r="AX19" s="2">
-        <v>0.76</v>
-      </c>
-      <c r="AY19" s="2">
-        <v>0.81</v>
-      </c>
-      <c r="AZ19" s="2">
-        <v>0.28399999999999997</v>
-      </c>
-      <c r="BA19" s="2">
-        <v>0.33</v>
-      </c>
-      <c r="BB19" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="BC19" s="2">
-        <v>0.26500000000000001</v>
-      </c>
-      <c r="BD19" s="2">
-        <v>0.89</v>
-      </c>
-      <c r="BE19" s="2">
-        <v>0.71</v>
-      </c>
-      <c r="BF19" s="2">
-        <v>0.30099999999999999</v>
-      </c>
-      <c r="BG19" s="2">
-        <v>0.46</v>
-      </c>
-      <c r="BH19" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="BI19" s="2">
-        <v>0.224</v>
-      </c>
-      <c r="BJ19" s="2">
-        <v>0.54</v>
-      </c>
-      <c r="BK19" s="2">
-        <v>0.35</v>
-      </c>
-      <c r="BL19" s="2">
-        <v>0.44</v>
-      </c>
-      <c r="BM19" s="2">
-        <v>0.67</v>
-      </c>
-      <c r="BN19" s="2">
-        <v>0.73</v>
-      </c>
-      <c r="BO19" s="2">
-        <v>0.28499999999999998</v>
-      </c>
-      <c r="BP19" s="2">
-        <v>0.88</v>
-      </c>
-      <c r="BQ19" s="2">
-        <v>0.88</v>
-      </c>
-      <c r="BR19" s="2">
-        <v>0.35299999999999998</v>
-      </c>
-      <c r="BS19" s="2">
-        <v>0.67</v>
-      </c>
-      <c r="BT19" s="2">
-        <v>0.77</v>
-      </c>
-      <c r="BU19" s="2">
-        <v>0.36299999999999999</v>
-      </c>
-      <c r="BV19" s="2">
-        <v>0.79</v>
-      </c>
-      <c r="BW19" s="2">
-        <v>0.83</v>
-      </c>
-      <c r="BX19" s="2">
-        <v>0.76900000000000002</v>
-      </c>
-      <c r="BY19" s="2">
-        <v>0.48</v>
-      </c>
-      <c r="BZ19" s="2">
-        <v>0.48</v>
-      </c>
-      <c r="CA19" s="2">
-        <v>0.49099999999999999</v>
-      </c>
-      <c r="CB19" s="2">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="CC19" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="CD19" s="2">
-        <v>0.28299999999999997</v>
-      </c>
-      <c r="CE19" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="CF19" s="2">
-        <v>0.53</v>
-      </c>
-      <c r="CG19" s="2">
-        <v>0.32200000000000001</v>
-      </c>
-      <c r="CH19" s="2">
-        <v>0.54</v>
-      </c>
-      <c r="CI19" s="2">
-        <v>0.64</v>
-      </c>
-      <c r="CJ19" s="2">
-        <v>0.313</v>
-      </c>
-    </row>
-    <row r="20" spans="1:88">
-      <c r="A20" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="C20" s="2">
-        <v>0.88</v>
-      </c>
-      <c r="D20" s="2">
-        <v>0.27700000000000002</v>
-      </c>
-      <c r="E20" s="2">
-        <v>0.47</v>
-      </c>
-      <c r="F20" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="G20" s="2">
-        <v>0.252</v>
-      </c>
-      <c r="H20" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="I20" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="J20" s="2">
-        <v>0.224</v>
-      </c>
-      <c r="K20" s="2">
-        <v>0.63</v>
-      </c>
-      <c r="L20" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="M20" s="2">
-        <v>0.23200000000000001</v>
-      </c>
-      <c r="N20" s="2">
-        <v>0.82</v>
-      </c>
-      <c r="O20" s="2">
-        <v>0.67</v>
-      </c>
-      <c r="P20" s="2">
-        <v>0.251</v>
-      </c>
-      <c r="Q20" s="2">
-        <v>0.86</v>
-      </c>
-      <c r="R20" s="2">
-        <v>0.79</v>
-      </c>
-      <c r="S20" s="2">
-        <v>0.32900000000000001</v>
-      </c>
-      <c r="T20" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="U20" s="2">
-        <v>0.37</v>
-      </c>
-      <c r="V20" s="2">
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="W20" s="2">
-        <v>0.62</v>
-      </c>
-      <c r="X20" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="Y20" s="2">
-        <v>0.23300000000000001</v>
-      </c>
-      <c r="Z20" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AA20" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="AB20" s="2">
-        <v>0.19400000000000001</v>
-      </c>
-      <c r="AC20" s="2">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="AD20" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AE20" s="2">
-        <v>0.312</v>
-      </c>
-      <c r="AF20" s="2">
-        <v>0.22</v>
-      </c>
-      <c r="AG20" s="2">
-        <v>0.33</v>
-      </c>
-      <c r="AH20" s="2">
-        <v>0.248</v>
-      </c>
-      <c r="AI20" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="AJ20" s="2">
-        <v>0.92</v>
-      </c>
-      <c r="AK20" s="2">
-        <v>0.24299999999999999</v>
-      </c>
-      <c r="AL20" s="2">
-        <v>0.71</v>
-      </c>
-      <c r="AM20" s="2">
-        <v>0.77</v>
-      </c>
-      <c r="AN20" s="2">
-        <v>0.25800000000000001</v>
-      </c>
-      <c r="AO20" s="2">
-        <v>0.62</v>
-      </c>
-      <c r="AP20" s="2">
-        <v>0.59</v>
-      </c>
-      <c r="AQ20" s="2">
-        <v>0.22900000000000001</v>
-      </c>
-      <c r="AR20" s="2">
-        <v>0.69</v>
-      </c>
-      <c r="AS20" s="2">
-        <v>0.65</v>
-      </c>
-      <c r="AT20" s="2">
-        <v>0.249</v>
-      </c>
-      <c r="AU20" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="AV20" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="AW20" s="2">
-        <v>0.23799999999999999</v>
-      </c>
-      <c r="AX20" s="2">
-        <v>0.76</v>
-      </c>
-      <c r="AY20" s="2">
-        <v>0.81</v>
-      </c>
-      <c r="AZ20" s="2">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="BA20" s="2">
-        <v>0.33</v>
-      </c>
-      <c r="BB20" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="BC20" s="2">
-        <v>0.27200000000000002</v>
-      </c>
-      <c r="BD20" s="2">
-        <v>0.89</v>
-      </c>
-      <c r="BE20" s="2">
-        <v>0.71</v>
-      </c>
-      <c r="BF20" s="2">
-        <v>0.30499999999999999</v>
-      </c>
-      <c r="BG20" s="2">
-        <v>0.46</v>
-      </c>
-      <c r="BH20" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="BI20" s="2">
-        <v>0.24</v>
-      </c>
-      <c r="BJ20" s="2">
-        <v>0.54</v>
-      </c>
-      <c r="BK20" s="2">
-        <v>0.35</v>
-      </c>
-      <c r="BL20" s="2">
-        <v>0.28199999999999997</v>
-      </c>
-      <c r="BM20" s="2">
-        <v>0.67</v>
-      </c>
-      <c r="BN20" s="2">
-        <v>0.73</v>
-      </c>
-      <c r="BO20" s="2">
-        <v>0.30499999999999999</v>
-      </c>
-      <c r="BP20" s="2">
-        <v>0.88</v>
-      </c>
-      <c r="BQ20" s="2">
-        <v>0.88</v>
-      </c>
-      <c r="BR20" s="2">
-        <v>0.373</v>
-      </c>
-      <c r="BS20" s="2">
-        <v>0.67</v>
-      </c>
-      <c r="BT20" s="2">
-        <v>0.77</v>
-      </c>
-      <c r="BU20" s="2">
-        <v>0.47399999999999998</v>
-      </c>
-      <c r="BV20" s="2">
-        <v>0.79</v>
-      </c>
-      <c r="BW20" s="2">
-        <v>0.83</v>
-      </c>
-      <c r="BX20" s="2">
-        <v>0.70299999999999996</v>
-      </c>
-      <c r="BY20" s="2">
-        <v>0.48</v>
-      </c>
-      <c r="BZ20" s="2">
-        <v>0.48</v>
-      </c>
-      <c r="CA20" s="2">
-        <v>0.60099999999999998</v>
-      </c>
-      <c r="CB20" s="2">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="CC20" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="CD20" s="2">
-        <v>0.28599999999999998</v>
-      </c>
-      <c r="CE20" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="CF20" s="2">
-        <v>0.53</v>
-      </c>
-      <c r="CG20" s="2">
-        <v>0.34599999999999997</v>
-      </c>
-      <c r="CH20" s="2">
-        <v>0.54</v>
-      </c>
-      <c r="CI20" s="2">
-        <v>0.64</v>
-      </c>
-      <c r="CJ20" s="2">
-        <v>0.32700000000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:88">
-      <c r="A21" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="C21" s="2">
-        <v>0.88</v>
-      </c>
-      <c r="D21" s="2">
-        <v>0.30199999999999999</v>
-      </c>
-      <c r="E21" s="2">
-        <v>0.47</v>
-      </c>
-      <c r="F21" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="G21" s="2">
-        <v>0.249</v>
-      </c>
-      <c r="H21" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="I21" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="J21" s="2">
-        <v>0.23400000000000001</v>
-      </c>
-      <c r="K21" s="2">
-        <v>0.68</v>
-      </c>
-      <c r="L21" s="2">
-        <v>0.62</v>
-      </c>
-      <c r="M21" s="2">
-        <v>0.28299999999999997</v>
-      </c>
-      <c r="N21" s="2">
-        <v>0.82</v>
-      </c>
-      <c r="O21" s="2">
-        <v>0.67</v>
-      </c>
-      <c r="P21" s="2">
-        <v>0.39800000000000002</v>
-      </c>
-      <c r="Q21" s="2">
-        <v>0.86</v>
-      </c>
-      <c r="R21" s="2">
-        <v>0.79</v>
-      </c>
-      <c r="S21" s="2">
-        <v>0.26300000000000001</v>
-      </c>
-      <c r="T21" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="U21" s="2">
-        <v>0.37</v>
-      </c>
-      <c r="V21" s="2">
-        <v>0.247</v>
-      </c>
-      <c r="W21" s="2">
-        <v>0.62</v>
-      </c>
-      <c r="X21" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="Y21" s="2">
-        <v>0.23599999999999999</v>
-      </c>
-      <c r="Z21" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AA21" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="AB21" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AC21" s="2">
-        <v>0.64</v>
-      </c>
-      <c r="AD21" s="2">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="AE21" s="2">
-        <v>0.32600000000000001</v>
-      </c>
-      <c r="AF21" s="2">
-        <v>0.22</v>
-      </c>
-      <c r="AG21" s="2">
-        <v>0.33</v>
-      </c>
-      <c r="AH21" s="2">
-        <v>0.27300000000000002</v>
-      </c>
-      <c r="AI21" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="AJ21" s="2">
-        <v>0.92</v>
-      </c>
-      <c r="AK21" s="2">
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="AL21" s="2">
-        <v>0.71</v>
-      </c>
-      <c r="AM21" s="2">
-        <v>0.77</v>
-      </c>
-      <c r="AN21" s="2">
-        <v>0.25900000000000001</v>
-      </c>
-      <c r="AO21" s="2">
-        <v>0.62</v>
-      </c>
-      <c r="AP21" s="2">
-        <v>0.59</v>
-      </c>
-      <c r="AQ21" s="2">
-        <v>0.28899999999999998</v>
-      </c>
-      <c r="AR21" s="2">
-        <v>0.69</v>
-      </c>
-      <c r="AS21" s="2">
-        <v>0.65</v>
-      </c>
-      <c r="AT21" s="2">
-        <v>0.245</v>
-      </c>
-      <c r="AU21" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="AV21" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="AW21" s="2">
-        <v>0.23699999999999999</v>
-      </c>
-      <c r="AX21" s="2">
-        <v>0.76</v>
-      </c>
-      <c r="AY21" s="2">
-        <v>0.81</v>
-      </c>
-      <c r="AZ21" s="2">
-        <v>0.27200000000000002</v>
-      </c>
-      <c r="BA21" s="2">
-        <v>0.33</v>
-      </c>
-      <c r="BB21" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="BC21" s="2">
-        <v>0.28799999999999998</v>
-      </c>
-      <c r="BD21" s="2">
-        <v>0.89</v>
-      </c>
-      <c r="BE21" s="2">
-        <v>0.71</v>
-      </c>
-      <c r="BF21" s="2">
-        <v>0.311</v>
-      </c>
-      <c r="BG21" s="2">
-        <v>0.46</v>
-      </c>
-      <c r="BH21" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="BI21" s="2">
-        <v>0.23200000000000001</v>
-      </c>
-      <c r="BJ21" s="2">
-        <v>0.54</v>
-      </c>
-      <c r="BK21" s="2">
-        <v>0.35</v>
-      </c>
-      <c r="BL21" s="2">
-        <v>0.26800000000000002</v>
-      </c>
-      <c r="BM21" s="2">
-        <v>0.67</v>
-      </c>
-      <c r="BN21" s="2">
-        <v>0.73</v>
-      </c>
-      <c r="BO21" s="2">
-        <v>0.24199999999999999</v>
-      </c>
-      <c r="BP21" s="2">
-        <v>0.88</v>
-      </c>
-      <c r="BQ21" s="2">
-        <v>0.88</v>
-      </c>
-      <c r="BR21" s="2">
-        <v>0.36899999999999999</v>
-      </c>
-      <c r="BS21" s="2">
-        <v>0.67</v>
-      </c>
-      <c r="BT21" s="2">
-        <v>0.77</v>
-      </c>
-      <c r="BU21" s="2">
-        <v>0.52700000000000002</v>
-      </c>
-      <c r="BV21" s="2">
-        <v>0.79</v>
-      </c>
-      <c r="BW21" s="2">
-        <v>0.83</v>
-      </c>
-      <c r="BX21" s="2">
-        <v>0.749</v>
-      </c>
-      <c r="BY21" s="2">
-        <v>0.48</v>
-      </c>
-      <c r="BZ21" s="2">
-        <v>0.48</v>
-      </c>
-      <c r="CA21" s="2">
-        <v>0.59399999999999997</v>
-      </c>
-      <c r="CB21" s="2">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="CC21" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="CD21" s="2">
-        <v>0.34699999999999998</v>
-      </c>
-      <c r="CE21" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="CF21" s="2">
-        <v>0.53</v>
-      </c>
-      <c r="CG21" s="2">
-        <v>0.39600000000000002</v>
-      </c>
-      <c r="CH21" s="2">
-        <v>0.54</v>
-      </c>
-      <c r="CI21" s="2">
-        <v>0.64</v>
-      </c>
-      <c r="CJ21" s="2">
-        <v>0.316</v>
-      </c>
-    </row>
-    <row r="22" spans="1:88">
-      <c r="A22" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="C22" s="2">
-        <v>0.88</v>
-      </c>
-      <c r="D22" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="E22" s="2">
-        <v>0.47</v>
-      </c>
-      <c r="F22" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="G22" s="2">
-        <v>0.25700000000000001</v>
-      </c>
-      <c r="H22" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="I22" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="J22" s="2">
-        <v>0.245</v>
-      </c>
-      <c r="K22" s="2">
-        <v>0.68</v>
-      </c>
-      <c r="L22" s="2">
-        <v>0.62</v>
-      </c>
-      <c r="M22" s="2">
-        <v>0.27</v>
-      </c>
-      <c r="N22" s="2">
-        <v>0.82</v>
-      </c>
-      <c r="O22" s="2">
-        <v>0.67</v>
-      </c>
-      <c r="P22" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="Q22" s="2">
-        <v>0.86</v>
-      </c>
-      <c r="R22" s="2">
-        <v>0.79</v>
-      </c>
-      <c r="S22" s="2">
-        <v>0.27200000000000002</v>
-      </c>
-      <c r="T22" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="U22" s="2">
-        <v>0.37</v>
-      </c>
-      <c r="V22" s="2">
-        <v>0.245</v>
-      </c>
-      <c r="W22" s="2">
-        <v>0.62</v>
-      </c>
-      <c r="X22" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="Y22" s="2">
-        <v>0.251</v>
-      </c>
-      <c r="Z22" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AA22" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="AB22" s="2">
-        <v>0.21099999999999999</v>
-      </c>
-      <c r="AC22" s="2">
-        <v>0.64</v>
-      </c>
-      <c r="AD22" s="2">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="AE22" s="2">
-        <v>0.32100000000000001</v>
-      </c>
-      <c r="AF22" s="2">
-        <v>0.22</v>
-      </c>
-      <c r="AG22" s="2">
-        <v>0.33</v>
-      </c>
-      <c r="AH22" s="2">
-        <v>0.29299999999999998</v>
-      </c>
-      <c r="AI22" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="AJ22" s="2">
-        <v>0.92</v>
-      </c>
-      <c r="AK22" s="2">
-        <v>0.248</v>
-      </c>
-      <c r="AL22" s="2">
-        <v>0.71</v>
-      </c>
-      <c r="AM22" s="2">
-        <v>0.77</v>
-      </c>
-      <c r="AN22" s="2">
-        <v>0.26900000000000002</v>
-      </c>
-      <c r="AO22" s="2">
-        <v>0.62</v>
-      </c>
-      <c r="AP22" s="2">
-        <v>0.59</v>
-      </c>
-      <c r="AQ22" s="2">
-        <v>0.42799999999999999</v>
-      </c>
-      <c r="AR22" s="2">
-        <v>0.69</v>
-      </c>
-      <c r="AS22" s="2">
-        <v>0.65</v>
-      </c>
-      <c r="AT22" s="2">
-        <v>0.26700000000000002</v>
-      </c>
-      <c r="AU22" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="AV22" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="AW22" s="2">
-        <v>0.25800000000000001</v>
-      </c>
-      <c r="AX22" s="2">
-        <v>0.76</v>
-      </c>
-      <c r="AY22" s="2">
-        <v>0.81</v>
-      </c>
-      <c r="AZ22" s="2">
-        <v>0.28199999999999997</v>
-      </c>
-      <c r="BA22" s="2">
-        <v>0.33</v>
-      </c>
-      <c r="BB22" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="BC22" s="2">
-        <v>0.28799999999999998</v>
-      </c>
-      <c r="BD22" s="2">
-        <v>0.89</v>
-      </c>
-      <c r="BE22" s="2">
-        <v>0.71</v>
-      </c>
-      <c r="BF22" s="2">
-        <v>0.308</v>
-      </c>
-      <c r="BG22" s="2">
-        <v>0.46</v>
-      </c>
-      <c r="BH22" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="BI22" s="2">
-        <v>0.27400000000000002</v>
-      </c>
-      <c r="BJ22" s="2">
-        <v>0.54</v>
-      </c>
-      <c r="BK22" s="2">
-        <v>0.35</v>
-      </c>
-      <c r="BL22" s="2">
-        <v>0.31900000000000001</v>
-      </c>
-      <c r="BM22" s="2">
-        <v>0.67</v>
-      </c>
-      <c r="BN22" s="2">
-        <v>0.73</v>
-      </c>
-      <c r="BO22" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="BP22" s="2">
-        <v>0.88</v>
-      </c>
-      <c r="BQ22" s="2">
-        <v>0.88</v>
-      </c>
-      <c r="BR22" s="2">
-        <v>0.38400000000000001</v>
-      </c>
-      <c r="BS22" s="2">
-        <v>0.67</v>
-      </c>
-      <c r="BT22" s="2">
-        <v>0.77</v>
-      </c>
-      <c r="BU22" s="2">
-        <v>0.55300000000000005</v>
-      </c>
-      <c r="BV22" s="2">
-        <v>0.79</v>
-      </c>
-      <c r="BW22" s="2">
-        <v>0.83</v>
-      </c>
-      <c r="BX22" s="2">
-        <v>0.78300000000000003</v>
-      </c>
-      <c r="BY22" s="2">
-        <v>0.52</v>
-      </c>
-      <c r="BZ22" s="2">
-        <v>0.52</v>
-      </c>
-      <c r="CA22" s="2">
-        <v>0.441</v>
-      </c>
-      <c r="CB22" s="2">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="CC22" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="CD22" s="2">
-        <v>0.38300000000000001</v>
-      </c>
-      <c r="CE22" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="CF22" s="2">
-        <v>0.53</v>
-      </c>
-      <c r="CG22" s="2">
-        <v>0.38300000000000001</v>
-      </c>
-      <c r="CH22" s="2">
-        <v>0.54</v>
-      </c>
-      <c r="CI22" s="2">
-        <v>0.64</v>
-      </c>
-      <c r="CJ22" s="2">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:88">
-      <c r="A23" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="2">
-        <v>0.78</v>
-      </c>
-      <c r="C23" s="2">
-        <v>0.88</v>
-      </c>
-      <c r="D23" s="2">
-        <v>0.436</v>
-      </c>
-      <c r="E23" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="F23" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="G23" s="2">
-        <v>0.41499999999999998</v>
-      </c>
-      <c r="H23" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="I23" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="J23" s="2">
-        <v>0.40600000000000003</v>
-      </c>
-      <c r="K23" s="2">
-        <v>0.68</v>
-      </c>
-      <c r="L23" s="2">
-        <v>0.62</v>
-      </c>
-      <c r="M23" s="2">
-        <v>0.45600000000000002</v>
-      </c>
-      <c r="N23" s="2">
-        <v>0.82</v>
-      </c>
-      <c r="O23" s="2">
-        <v>0.67</v>
-      </c>
-      <c r="P23" s="2">
-        <v>0.41399999999999998</v>
-      </c>
-      <c r="Q23" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="R23" s="2">
-        <v>0.83</v>
-      </c>
-      <c r="S23" s="2">
-        <v>0.47899999999999998</v>
-      </c>
-      <c r="T23" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="U23" s="2">
-        <v>0.37</v>
-      </c>
-      <c r="V23" s="2">
-        <v>0.42</v>
-      </c>
-      <c r="W23" s="2">
-        <v>0.62</v>
-      </c>
-      <c r="X23" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="Y23" s="2">
-        <v>0.36599999999999999</v>
-      </c>
-      <c r="Z23" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AA23" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="AB23" s="2">
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="AC23" s="2">
-        <v>0.64</v>
-      </c>
-      <c r="AD23" s="2">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="AE23" s="2">
-        <v>0.53700000000000003</v>
-      </c>
-      <c r="AF23" s="2">
-        <v>0.22</v>
-      </c>
-      <c r="AG23" s="2">
-        <v>0.33</v>
-      </c>
-      <c r="AH23" s="2">
-        <v>0.46899999999999997</v>
-      </c>
-      <c r="AI23" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="AJ23" s="2">
-        <v>0.92</v>
-      </c>
-      <c r="AK23" s="2">
-        <v>0.41899999999999998</v>
-      </c>
-      <c r="AL23" s="2">
-        <v>0.71</v>
-      </c>
-      <c r="AM23" s="2">
-        <v>0.77</v>
-      </c>
-      <c r="AN23" s="2">
-        <v>0.443</v>
-      </c>
-      <c r="AO23" s="2">
-        <v>0.65</v>
-      </c>
-      <c r="AP23" s="2">
-        <v>0.65</v>
-      </c>
-      <c r="AQ23" s="2">
-        <v>0.41199999999999998</v>
-      </c>
-      <c r="AR23" s="2">
-        <v>0.69</v>
-      </c>
-      <c r="AS23" s="2">
-        <v>0.65</v>
-      </c>
-      <c r="AT23" s="2">
-        <v>0.45700000000000002</v>
-      </c>
-      <c r="AU23" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="AV23" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="AW23" s="2">
-        <v>0.38500000000000001</v>
-      </c>
-      <c r="AX23" s="2">
-        <v>0.76</v>
-      </c>
-      <c r="AY23" s="2">
-        <v>0.81</v>
-      </c>
-      <c r="AZ23" s="2">
-        <v>0.45800000000000002</v>
-      </c>
-      <c r="BA23" s="2">
-        <v>0.33</v>
-      </c>
-      <c r="BB23" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="BC23" s="2">
-        <v>0.44900000000000001</v>
-      </c>
-      <c r="BD23" s="2">
-        <v>0.84</v>
-      </c>
-      <c r="BE23" s="2">
-        <v>0.67</v>
-      </c>
-      <c r="BF23" s="2">
-        <v>0.49399999999999999</v>
-      </c>
-      <c r="BG23" s="2">
-        <v>0.46</v>
-      </c>
-      <c r="BH23" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="BI23" s="2">
-        <v>0.41399999999999998</v>
-      </c>
-      <c r="BJ23" s="2">
-        <v>0.54</v>
-      </c>
-      <c r="BK23" s="2">
-        <v>0.35</v>
-      </c>
-      <c r="BL23" s="2">
-        <v>0.32400000000000001</v>
-      </c>
-      <c r="BM23" s="2">
-        <v>0.67</v>
-      </c>
-      <c r="BN23" s="2">
-        <v>0.73</v>
-      </c>
-      <c r="BO23" s="2">
-        <v>0.25900000000000001</v>
-      </c>
-      <c r="BP23" s="2">
-        <v>0.88</v>
-      </c>
-      <c r="BQ23" s="2">
-        <v>0.88</v>
-      </c>
-      <c r="BR23" s="2">
-        <v>0.40300000000000002</v>
-      </c>
-      <c r="BS23" s="2">
-        <v>0.67</v>
-      </c>
-      <c r="BT23" s="2">
-        <v>0.77</v>
-      </c>
-      <c r="BU23" s="2">
-        <v>0.60099999999999998</v>
-      </c>
-      <c r="BV23" s="2">
-        <v>0.79</v>
-      </c>
-      <c r="BW23" s="2">
-        <v>0.83</v>
-      </c>
-      <c r="BX23" s="2">
-        <v>0.77700000000000002</v>
-      </c>
-      <c r="BY23" s="2">
-        <v>0.52</v>
-      </c>
-      <c r="BZ23" s="2">
-        <v>0.52</v>
-      </c>
-      <c r="CA23" s="2">
-        <v>0.39</v>
-      </c>
-      <c r="CB23" s="2">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="CC23" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="CD23" s="2">
-        <v>0.34100000000000003</v>
-      </c>
-      <c r="CE23" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="CF23" s="2">
-        <v>0.53</v>
-      </c>
-      <c r="CG23" s="2">
-        <v>0.45200000000000001</v>
-      </c>
-      <c r="CH23" s="2">
-        <v>0.54</v>
-      </c>
-      <c r="CI23" s="2">
-        <v>0.64</v>
-      </c>
-      <c r="CJ23" s="2">
-        <v>0.35099999999999998</v>
-      </c>
-    </row>
-    <row r="24" spans="1:88">
-      <c r="A24" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="2">
-        <v>0.78</v>
-      </c>
-      <c r="C24" s="2">
-        <v>0.88</v>
-      </c>
-      <c r="D24" s="2">
-        <v>0.442</v>
-      </c>
-      <c r="E24" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="F24" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="G24" s="2">
-        <v>0.442</v>
-      </c>
-      <c r="H24" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="I24" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="J24" s="2">
-        <v>0.42499999999999999</v>
-      </c>
-      <c r="K24" s="2">
-        <v>0.68</v>
-      </c>
-      <c r="L24" s="2">
-        <v>0.62</v>
-      </c>
-      <c r="M24" s="2">
-        <v>0.48299999999999998</v>
-      </c>
-      <c r="N24" s="2">
-        <v>0.82</v>
-      </c>
-      <c r="O24" s="2">
-        <v>0.67</v>
-      </c>
-      <c r="P24" s="2">
-        <v>0.437</v>
-      </c>
-      <c r="Q24" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="R24" s="2">
-        <v>0.83</v>
-      </c>
-      <c r="S24" s="2">
-        <v>0.48799999999999999</v>
-      </c>
-      <c r="T24" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="U24" s="2">
-        <v>0.37</v>
-      </c>
-      <c r="V24" s="2">
-        <v>0.40799999999999997</v>
-      </c>
-      <c r="W24" s="2">
-        <v>0.62</v>
-      </c>
-      <c r="X24" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="Y24" s="2">
-        <v>0.379</v>
-      </c>
-      <c r="Z24" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AA24" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="AB24" s="2">
-        <v>0.34399999999999997</v>
-      </c>
-      <c r="AC24" s="2">
-        <v>0.64</v>
-      </c>
-      <c r="AD24" s="2">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="AE24" s="2">
-        <v>0.63</v>
-      </c>
-      <c r="AF24" s="2">
-        <v>0.22</v>
-      </c>
-      <c r="AG24" s="2">
-        <v>0.33</v>
-      </c>
-      <c r="AH24" s="2">
-        <v>0.60199999999999998</v>
-      </c>
-      <c r="AI24" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="AJ24" s="2">
-        <v>0.92</v>
-      </c>
-      <c r="AK24" s="2">
-        <v>0.42399999999999999</v>
-      </c>
-      <c r="AL24" s="2">
-        <v>0.71</v>
-      </c>
-      <c r="AM24" s="2">
-        <v>0.77</v>
-      </c>
-      <c r="AN24" s="2">
-        <v>0.441</v>
-      </c>
-      <c r="AO24" s="2">
-        <v>0.65</v>
-      </c>
-      <c r="AP24" s="2">
-        <v>0.65</v>
-      </c>
-      <c r="AQ24" s="2">
-        <v>0.432</v>
-      </c>
-      <c r="AR24" s="2">
-        <v>0.69</v>
-      </c>
-      <c r="AS24" s="2">
-        <v>0.65</v>
-      </c>
-      <c r="AT24" s="2">
-        <v>0.44500000000000001</v>
-      </c>
-      <c r="AU24" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="AV24" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="AW24" s="2">
-        <v>0.41799999999999998</v>
-      </c>
-      <c r="AX24" s="2">
-        <v>0.76</v>
-      </c>
-      <c r="AY24" s="2">
-        <v>0.81</v>
-      </c>
-      <c r="AZ24" s="2">
-        <v>0.59</v>
-      </c>
-      <c r="BA24" s="2">
-        <v>0.33</v>
-      </c>
-      <c r="BB24" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="BC24" s="2">
-        <v>0.46600000000000003</v>
-      </c>
-      <c r="BD24" s="2">
-        <v>0.84</v>
-      </c>
-      <c r="BE24" s="2">
-        <v>0.67</v>
-      </c>
-      <c r="BF24" s="2">
-        <v>0.53400000000000003</v>
-      </c>
-      <c r="BG24" s="2">
-        <v>0.46</v>
-      </c>
-      <c r="BH24" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="BI24" s="2">
-        <v>0.41799999999999998</v>
-      </c>
-      <c r="BJ24" s="2">
-        <v>0.54</v>
-      </c>
-      <c r="BK24" s="2">
-        <v>0.35</v>
-      </c>
-      <c r="BL24" s="2">
-        <v>0.30499999999999999</v>
-      </c>
-      <c r="BM24" s="2">
-        <v>0.67</v>
-      </c>
-      <c r="BN24" s="2">
-        <v>0.73</v>
-      </c>
-      <c r="BO24" s="2">
-        <v>0.47699999999999998</v>
-      </c>
-      <c r="BP24" s="2">
-        <v>0.83</v>
-      </c>
-      <c r="BQ24" s="2">
-        <v>0.83</v>
-      </c>
-      <c r="BR24" s="2">
-        <v>0.623</v>
-      </c>
-      <c r="BS24" s="2">
-        <v>0.67</v>
-      </c>
-      <c r="BT24" s="2">
-        <v>0.77</v>
-      </c>
-      <c r="BU24" s="2">
-        <v>0.80900000000000005</v>
-      </c>
-      <c r="BV24" s="2">
-        <v>0.74</v>
-      </c>
-      <c r="BW24" s="2">
-        <v>0.78</v>
-      </c>
-      <c r="BX24" s="2">
-        <v>1.0649999999999999</v>
-      </c>
-      <c r="BY24" s="2">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="BZ24" s="2">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="CA24" s="2">
-        <v>0.83399999999999996</v>
-      </c>
-      <c r="CB24" s="2">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="CC24" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="CD24" s="2">
-        <v>0.54200000000000004</v>
-      </c>
-      <c r="CE24" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="CF24" s="2">
-        <v>0.42</v>
-      </c>
-      <c r="CG24" s="2">
-        <v>0.66400000000000003</v>
-      </c>
-      <c r="CH24" s="2">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="CI24" s="2">
-        <v>0.64</v>
-      </c>
-      <c r="CJ24" s="2">
-        <v>0.48699999999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:88">
-      <c r="A25" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" s="2">
-        <v>0.78</v>
-      </c>
-      <c r="C25" s="2">
-        <v>0.88</v>
-      </c>
-      <c r="D25" s="2">
-        <v>0.58099999999999996</v>
-      </c>
-      <c r="E25" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="F25" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="G25" s="2">
-        <v>0.43</v>
-      </c>
-      <c r="H25" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="I25" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="J25" s="2">
-        <v>0.40400000000000003</v>
-      </c>
-      <c r="K25" s="2">
-        <v>0.68</v>
-      </c>
-      <c r="L25" s="2">
-        <v>0.62</v>
-      </c>
-      <c r="M25" s="2">
-        <v>0.46800000000000003</v>
-      </c>
-      <c r="N25" s="2">
-        <v>0.82</v>
-      </c>
-      <c r="O25" s="2">
-        <v>0.67</v>
-      </c>
-      <c r="P25" s="2">
-        <v>0.432</v>
-      </c>
-      <c r="Q25" s="2">
-        <v>0.84</v>
-      </c>
-      <c r="R25" s="2">
-        <v>0.88</v>
-      </c>
-      <c r="S25" s="2">
-        <v>0.57099999999999995</v>
-      </c>
-      <c r="T25" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="U25" s="2">
-        <v>0.37</v>
-      </c>
-      <c r="V25" s="2">
-        <v>0.55300000000000005</v>
-      </c>
-      <c r="W25" s="2">
-        <v>0.62</v>
-      </c>
-      <c r="X25" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="Y25" s="2">
-        <v>0.39100000000000001</v>
-      </c>
-      <c r="Z25" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AA25" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="AB25" s="2">
-        <v>0.33700000000000002</v>
-      </c>
-      <c r="AC25" s="2">
-        <v>0.64</v>
-      </c>
-      <c r="AD25" s="2">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="AE25" s="2">
-        <v>0.80500000000000005</v>
-      </c>
-      <c r="AF25" s="2">
-        <v>0.22</v>
-      </c>
-      <c r="AG25" s="2">
-        <v>0.33</v>
-      </c>
-      <c r="AH25" s="2">
-        <v>0.44700000000000001</v>
-      </c>
-      <c r="AI25" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="AJ25" s="2">
-        <v>0.92</v>
-      </c>
-      <c r="AK25" s="2">
-        <v>0.435</v>
-      </c>
-      <c r="AL25" s="2">
-        <v>0.71</v>
-      </c>
-      <c r="AM25" s="2">
-        <v>0.77</v>
-      </c>
-      <c r="AN25" s="2">
-        <v>0.439</v>
-      </c>
-      <c r="AO25" s="2">
-        <v>0.65</v>
-      </c>
-      <c r="AP25" s="2">
-        <v>0.65</v>
-      </c>
-      <c r="AQ25" s="2">
-        <v>0.436</v>
-      </c>
-      <c r="AR25" s="2">
-        <v>0.69</v>
-      </c>
-      <c r="AS25" s="2">
-        <v>0.65</v>
-      </c>
-      <c r="AT25" s="2">
-        <v>0.45300000000000001</v>
-      </c>
-      <c r="AU25" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="AV25" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="AW25" s="2">
-        <v>0.42299999999999999</v>
-      </c>
-      <c r="AX25" s="2">
-        <v>0.76</v>
-      </c>
-      <c r="AY25" s="2">
-        <v>0.81</v>
-      </c>
-      <c r="AZ25" s="2">
-        <v>0.441</v>
-      </c>
-      <c r="BA25" s="2">
-        <v>0.33</v>
-      </c>
-      <c r="BB25" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="BC25" s="2">
-        <v>0.46200000000000002</v>
-      </c>
-      <c r="BD25" s="2">
-        <v>0.84</v>
-      </c>
-      <c r="BE25" s="2">
-        <v>0.67</v>
-      </c>
-      <c r="BF25" s="2">
-        <v>0.54100000000000004</v>
-      </c>
-      <c r="BG25" s="2">
-        <v>0.46</v>
-      </c>
-      <c r="BH25" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="BI25" s="2">
-        <v>0.432</v>
-      </c>
-      <c r="BJ25" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="BK25" s="2">
-        <v>0.32</v>
-      </c>
-      <c r="BL25" s="2">
-        <v>0.38900000000000001</v>
-      </c>
-      <c r="BM25" s="2">
-        <v>0.67</v>
-      </c>
-      <c r="BN25" s="2">
-        <v>0.73</v>
-      </c>
-      <c r="BO25" s="2">
-        <v>0.432</v>
-      </c>
-      <c r="BP25" s="2">
-        <v>0.83</v>
-      </c>
-      <c r="BQ25" s="2">
-        <v>0.83</v>
-      </c>
-      <c r="BR25" s="2">
-        <v>0.66200000000000003</v>
-      </c>
-      <c r="BS25" s="2">
-        <v>0.67</v>
-      </c>
-      <c r="BT25" s="2">
-        <v>0.77</v>
-      </c>
-      <c r="BU25" s="2">
-        <v>0.86</v>
-      </c>
-      <c r="BV25" s="2">
-        <v>0.74</v>
-      </c>
-      <c r="BW25" s="2">
-        <v>0.78</v>
-      </c>
-      <c r="BX25" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="BY25" s="2">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="BZ25" s="2">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="CA25" s="2">
-        <v>0.69299999999999995</v>
-      </c>
-      <c r="CB25" s="2">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="CC25" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="CD25" s="2">
-        <v>0.52800000000000002</v>
-      </c>
-      <c r="CE25" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="CF25" s="2">
-        <v>0.42</v>
-      </c>
-      <c r="CG25" s="2">
-        <v>0.68</v>
-      </c>
-      <c r="CH25" s="2">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="CI25" s="2">
-        <v>0.64</v>
-      </c>
-      <c r="CJ25" s="2">
-        <v>0.46800000000000003</v>
-      </c>
-    </row>
-    <row r="26" spans="1:88">
-      <c r="A26" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" s="2">
-        <v>0.78</v>
-      </c>
-      <c r="C26" s="2">
-        <v>0.88</v>
-      </c>
-      <c r="D26" s="2">
-        <v>0.42899999999999999</v>
-      </c>
-      <c r="E26" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="F26" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="G26" s="2">
-        <v>0.438</v>
-      </c>
-      <c r="H26" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="I26" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="J26" s="2">
-        <v>0.42899999999999999</v>
-      </c>
-      <c r="K26" s="2">
-        <v>0.68</v>
-      </c>
-      <c r="L26" s="2">
-        <v>0.62</v>
-      </c>
-      <c r="M26" s="2">
-        <v>0.45900000000000002</v>
-      </c>
-      <c r="N26" s="2">
-        <v>0.82</v>
-      </c>
-      <c r="O26" s="2">
-        <v>0.67</v>
-      </c>
-      <c r="P26" s="2">
-        <v>0.433</v>
-      </c>
-      <c r="Q26" s="2">
-        <v>0.84</v>
-      </c>
-      <c r="R26" s="2">
-        <v>0.88</v>
-      </c>
-      <c r="S26" s="2">
-        <v>0.66700000000000004</v>
-      </c>
-      <c r="T26" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="U26" s="2">
-        <v>0.37</v>
-      </c>
-      <c r="V26" s="2">
-        <v>0.432</v>
-      </c>
-      <c r="W26" s="2">
-        <v>0.62</v>
-      </c>
-      <c r="X26" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="Y26" s="2">
-        <v>0.40100000000000002</v>
-      </c>
-      <c r="Z26" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AA26" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="AB26" s="2">
-        <v>0.34200000000000003</v>
-      </c>
-      <c r="AC26" s="2">
-        <v>0.64</v>
-      </c>
-      <c r="AD26" s="2">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="AE26" s="2">
-        <v>0.70799999999999996</v>
-      </c>
-      <c r="AF26" s="2">
-        <v>0.22</v>
-      </c>
-      <c r="AG26" s="2">
-        <v>0.33</v>
-      </c>
-      <c r="AH26" s="2">
-        <v>0.54600000000000004</v>
-      </c>
-      <c r="AI26" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="AJ26" s="2">
-        <v>0.92</v>
-      </c>
-      <c r="AK26" s="2">
-        <v>0.61899999999999999</v>
-      </c>
-      <c r="AL26" s="2">
-        <v>0.71</v>
-      </c>
-      <c r="AM26" s="2">
-        <v>0.77</v>
-      </c>
-      <c r="AN26" s="2">
-        <v>0.48299999999999998</v>
-      </c>
-      <c r="AO26" s="2">
-        <v>0.65</v>
-      </c>
-      <c r="AP26" s="2">
-        <v>0.65</v>
-      </c>
-      <c r="AQ26" s="2">
-        <v>0.438</v>
-      </c>
-      <c r="AR26" s="2">
-        <v>0.69</v>
-      </c>
-      <c r="AS26" s="2">
-        <v>0.65</v>
-      </c>
-      <c r="AT26" s="2">
-        <v>0.45300000000000001</v>
-      </c>
-      <c r="AU26" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="AV26" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="AW26" s="2">
-        <v>0.42599999999999999</v>
-      </c>
-      <c r="AX26" s="2">
-        <v>0.76</v>
-      </c>
-      <c r="AY26" s="2">
-        <v>0.81</v>
-      </c>
-      <c r="AZ26" s="2">
-        <v>0.46700000000000003</v>
-      </c>
-      <c r="BA26" s="2">
-        <v>0.33</v>
-      </c>
-      <c r="BB26" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="BC26" s="2">
-        <v>0.59499999999999997</v>
-      </c>
-      <c r="BD26" s="2">
-        <v>0.84</v>
-      </c>
-      <c r="BE26" s="2">
-        <v>0.67</v>
-      </c>
-      <c r="BF26" s="2">
-        <v>0.53300000000000003</v>
-      </c>
-      <c r="BG26" s="2">
-        <v>0.46</v>
-      </c>
-      <c r="BH26" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="BI26" s="2">
-        <v>0.45200000000000001</v>
-      </c>
-      <c r="BJ26" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="BK26" s="2">
-        <v>0.32</v>
-      </c>
-      <c r="BL26" s="2">
-        <v>0.38900000000000001</v>
-      </c>
-      <c r="BM26" s="2">
-        <v>0.67</v>
-      </c>
-      <c r="BN26" s="2">
-        <v>0.73</v>
-      </c>
-      <c r="BO26" s="2">
-        <v>0.65</v>
-      </c>
-      <c r="BP26" s="2">
-        <v>0.83</v>
-      </c>
-      <c r="BQ26" s="2">
-        <v>0.83</v>
-      </c>
-      <c r="BR26" s="2">
-        <v>0.66300000000000003</v>
-      </c>
-      <c r="BS26" s="2">
-        <v>0.67</v>
-      </c>
-      <c r="BT26" s="2">
-        <v>0.77</v>
-      </c>
-      <c r="BU26" s="2">
-        <v>0.90300000000000002</v>
-      </c>
-      <c r="BV26" s="2">
-        <v>0.74</v>
-      </c>
-      <c r="BW26" s="2">
-        <v>0.78</v>
-      </c>
-      <c r="BX26" s="2">
-        <v>1.3540000000000001</v>
-      </c>
-      <c r="BY26" s="2">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="BZ26" s="2">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="CA26" s="2">
-        <v>0.72399999999999998</v>
-      </c>
-      <c r="CB26" s="2">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="CC26" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="CD26" s="2">
-        <v>0.53300000000000003</v>
-      </c>
-      <c r="CE26" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="CF26" s="2">
-        <v>0.42</v>
-      </c>
-      <c r="CG26" s="2">
-        <v>0.65500000000000003</v>
-      </c>
-      <c r="CH26" s="2">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="CI26" s="2">
-        <v>0.64</v>
-      </c>
-      <c r="CJ26" s="2">
-        <v>0.63400000000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:88">
-      <c r="A27" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" s="2">
-        <v>0.78</v>
-      </c>
-      <c r="C27" s="2">
-        <v>0.88</v>
-      </c>
-      <c r="D27" s="2">
-        <v>0.437</v>
-      </c>
-      <c r="E27" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="F27" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="G27" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="H27" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="I27" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="J27" s="2">
-        <v>0.41899999999999998</v>
-      </c>
-      <c r="K27" s="2">
-        <v>0.68</v>
-      </c>
-      <c r="L27" s="2">
-        <v>0.62</v>
-      </c>
-      <c r="M27" s="2">
-        <v>0.45100000000000001</v>
-      </c>
-      <c r="N27" s="2">
-        <v>0.82</v>
-      </c>
-      <c r="O27" s="2">
-        <v>0.67</v>
-      </c>
-      <c r="P27" s="2">
-        <v>0.42199999999999999</v>
-      </c>
-      <c r="Q27" s="2">
-        <v>0.84</v>
-      </c>
-      <c r="R27" s="2">
-        <v>0.88</v>
-      </c>
-      <c r="S27" s="2">
-        <v>0.621</v>
-      </c>
-      <c r="T27" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="U27" s="2">
-        <v>0.37</v>
-      </c>
-      <c r="V27" s="2">
-        <v>0.41699999999999998</v>
-      </c>
-      <c r="W27" s="2">
-        <v>0.62</v>
-      </c>
-      <c r="X27" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="Y27" s="2">
-        <v>0.38100000000000001</v>
-      </c>
-      <c r="Z27" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AA27" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="AB27" s="2">
-        <v>0.34300000000000003</v>
-      </c>
-      <c r="AC27" s="2">
-        <v>0.64</v>
-      </c>
-      <c r="AD27" s="2">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="AE27" s="2">
-        <v>0.63100000000000001</v>
-      </c>
-      <c r="AF27" s="2">
-        <v>0.22</v>
-      </c>
-      <c r="AG27" s="2">
-        <v>0.33</v>
-      </c>
-      <c r="AH27" s="2">
-        <v>0.46600000000000003</v>
-      </c>
-      <c r="AI27" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="AJ27" s="2">
-        <v>0.92</v>
-      </c>
-      <c r="AK27" s="2">
-        <v>0.45600000000000002</v>
-      </c>
-      <c r="AL27" s="2">
-        <v>0.71</v>
-      </c>
-      <c r="AM27" s="2">
-        <v>0.77</v>
-      </c>
-      <c r="AN27" s="2">
-        <v>0.47299999999999998</v>
-      </c>
-      <c r="AO27" s="2">
-        <v>0.65</v>
-      </c>
-      <c r="AP27" s="2">
-        <v>0.65</v>
-      </c>
-      <c r="AQ27" s="2">
-        <v>0.43</v>
-      </c>
-      <c r="AR27" s="2">
-        <v>0.69</v>
-      </c>
-      <c r="AS27" s="2">
-        <v>0.65</v>
-      </c>
-      <c r="AT27" s="2">
-        <v>0.63300000000000001</v>
-      </c>
-      <c r="AU27" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="AV27" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="AW27" s="2">
-        <v>0.42599999999999999</v>
-      </c>
-      <c r="AX27" s="2">
-        <v>0.76</v>
-      </c>
-      <c r="AY27" s="2">
-        <v>0.81</v>
-      </c>
-      <c r="AZ27" s="2">
-        <v>0.48599999999999999</v>
-      </c>
-      <c r="BA27" s="2">
-        <v>0.33</v>
-      </c>
-      <c r="BB27" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="BC27" s="2">
-        <v>0.45500000000000002</v>
-      </c>
-      <c r="BD27" s="2">
-        <v>0.84</v>
-      </c>
-      <c r="BE27" s="2">
-        <v>0.67</v>
-      </c>
-      <c r="BF27" s="2">
-        <v>0.70499999999999996</v>
-      </c>
-      <c r="BG27" s="2">
-        <v>0.46</v>
-      </c>
-      <c r="BH27" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="BI27" s="2">
-        <v>0.441</v>
-      </c>
-      <c r="BJ27" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="BK27" s="2">
-        <v>0.32</v>
-      </c>
-      <c r="BL27" s="2">
-        <v>0.42499999999999999</v>
-      </c>
-      <c r="BM27" s="2">
-        <v>0.67</v>
-      </c>
-      <c r="BN27" s="2">
-        <v>0.73</v>
-      </c>
-      <c r="BO27" s="2">
-        <v>0.435</v>
-      </c>
-      <c r="BP27" s="2">
-        <v>0.83</v>
-      </c>
-      <c r="BQ27" s="2">
-        <v>0.83</v>
-      </c>
-      <c r="BR27" s="2">
-        <v>0.67700000000000005</v>
-      </c>
-      <c r="BS27" s="2">
-        <v>0.67</v>
-      </c>
-      <c r="BT27" s="2">
-        <v>0.77</v>
-      </c>
-      <c r="BU27" s="2">
-        <v>1.06</v>
-      </c>
-      <c r="BV27" s="2">
-        <v>0.74</v>
-      </c>
-      <c r="BW27" s="2">
-        <v>0.78</v>
-      </c>
-      <c r="BX27" s="2">
-        <v>1.2709999999999999</v>
-      </c>
-      <c r="BY27" s="2">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="BZ27" s="2">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="CA27" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="CB27" s="2">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="CC27" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="CD27" s="2">
-        <v>0.626</v>
-      </c>
-      <c r="CE27" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="CF27" s="2">
-        <v>0.42</v>
-      </c>
-      <c r="CG27" s="2">
-        <v>0.76600000000000001</v>
-      </c>
-      <c r="CH27" s="2">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="CI27" s="2">
-        <v>0.64</v>
-      </c>
-      <c r="CJ27" s="2">
-        <v>0.503</v>
-      </c>
-    </row>
-    <row r="28" spans="1:88">
-      <c r="A28" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" s="2">
-        <v>0.78</v>
-      </c>
-      <c r="C28" s="2">
-        <v>0.88</v>
-      </c>
-      <c r="D28" s="2">
-        <v>0.53400000000000003</v>
-      </c>
-      <c r="E28" s="2">
-        <v>0.47</v>
-      </c>
-      <c r="F28" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="G28" s="2">
-        <v>0.55300000000000005</v>
-      </c>
-      <c r="H28" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="I28" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="J28" s="2">
-        <v>0.52200000000000002</v>
-      </c>
-      <c r="K28" s="2">
-        <v>0.68</v>
-      </c>
-      <c r="L28" s="2">
-        <v>0.62</v>
-      </c>
-      <c r="M28" s="2">
-        <v>0.61799999999999999</v>
-      </c>
-      <c r="N28" s="2">
-        <v>0.82</v>
-      </c>
-      <c r="O28" s="2">
-        <v>0.67</v>
-      </c>
-      <c r="P28" s="2">
-        <v>0.52200000000000002</v>
-      </c>
-      <c r="Q28" s="2">
-        <v>0.84</v>
-      </c>
-      <c r="R28" s="2">
-        <v>0.88</v>
-      </c>
-      <c r="S28" s="2">
-        <v>0.80500000000000005</v>
-      </c>
-      <c r="T28" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="U28" s="2">
-        <v>0.37</v>
-      </c>
-      <c r="V28" s="2">
-        <v>0.51700000000000002</v>
-      </c>
-      <c r="W28" s="2">
-        <v>0.62</v>
-      </c>
-      <c r="X28" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="Y28" s="2">
-        <v>0.47399999999999998</v>
-      </c>
-      <c r="Z28" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AA28" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="AB28" s="2">
-        <v>0.40600000000000003</v>
-      </c>
-      <c r="AC28" s="2">
-        <v>0.64</v>
-      </c>
-      <c r="AD28" s="2">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="AE28" s="2">
-        <v>0.73399999999999999</v>
-      </c>
-      <c r="AF28" s="2">
-        <v>0.22</v>
-      </c>
-      <c r="AG28" s="2">
-        <v>0.33</v>
-      </c>
-      <c r="AH28" s="2">
-        <v>0.51300000000000001</v>
-      </c>
-      <c r="AI28" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="AJ28" s="2">
-        <v>0.92</v>
-      </c>
-      <c r="AK28" s="2">
-        <v>0.53700000000000003</v>
-      </c>
-      <c r="AL28" s="2">
-        <v>0.71</v>
-      </c>
-      <c r="AM28" s="2">
-        <v>0.77</v>
-      </c>
-      <c r="AN28" s="2">
-        <v>0.57399999999999995</v>
-      </c>
-      <c r="AO28" s="2">
-        <v>0.65</v>
-      </c>
-      <c r="AP28" s="2">
-        <v>0.65</v>
-      </c>
-      <c r="AQ28" s="2">
-        <v>0.54500000000000004</v>
-      </c>
-      <c r="AR28" s="2">
-        <v>0.69</v>
-      </c>
-      <c r="AS28" s="2">
-        <v>0.65</v>
-      </c>
-      <c r="AT28" s="2">
-        <v>0.53200000000000003</v>
-      </c>
-      <c r="AU28" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="AV28" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="AW28" s="2">
-        <v>0.499</v>
-      </c>
-      <c r="AX28" s="2">
-        <v>0.71</v>
-      </c>
-      <c r="AY28" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="AZ28" s="2">
-        <v>0.58799999999999997</v>
-      </c>
-      <c r="BA28" s="2">
-        <v>0.33</v>
-      </c>
-      <c r="BB28" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="BC28" s="2">
-        <v>0.53</v>
-      </c>
-      <c r="BD28" s="2">
-        <v>0.84</v>
-      </c>
-      <c r="BE28" s="2">
-        <v>0.67</v>
-      </c>
-      <c r="BF28" s="2">
-        <v>0.622</v>
-      </c>
-      <c r="BG28" s="2">
-        <v>0.46</v>
-      </c>
-      <c r="BH28" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="BI28" s="2">
-        <v>0.67600000000000005</v>
-      </c>
-      <c r="BJ28" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="BK28" s="2">
-        <v>0.41</v>
-      </c>
-      <c r="BL28" s="2">
-        <v>0.38300000000000001</v>
-      </c>
-      <c r="BM28" s="2">
-        <v>0.67</v>
-      </c>
-      <c r="BN28" s="2">
-        <v>0.73</v>
-      </c>
-      <c r="BO28" s="2">
-        <v>0.54200000000000004</v>
-      </c>
-      <c r="BP28" s="2">
-        <v>0.83</v>
-      </c>
-      <c r="BQ28" s="2">
-        <v>0.83</v>
-      </c>
-      <c r="BR28" s="2">
-        <v>1.0009999999999999</v>
-      </c>
-      <c r="BS28" s="2">
-        <v>0.67</v>
-      </c>
-      <c r="BT28" s="2">
-        <v>0.77</v>
-      </c>
-      <c r="BU28" s="2">
-        <v>1.6639999999999999</v>
-      </c>
-      <c r="BV28" s="2">
-        <v>0.74</v>
-      </c>
-      <c r="BW28" s="2">
-        <v>0.78</v>
-      </c>
-      <c r="BX28" s="2">
-        <v>0.86599999999999999</v>
-      </c>
-      <c r="BY28" s="2">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="BZ28" s="2">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="CA28" s="2">
-        <v>0.66600000000000004</v>
-      </c>
-      <c r="CB28" s="2">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="CC28" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="CD28" s="2">
-        <v>0.754</v>
-      </c>
-      <c r="CE28" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="CF28" s="2">
-        <v>0.42</v>
-      </c>
-      <c r="CG28" s="2">
-        <v>0.65700000000000003</v>
-      </c>
-      <c r="CH28" s="2">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="CI28" s="2">
-        <v>0.64</v>
-      </c>
-      <c r="CJ28" s="2">
-        <v>0.48299999999999998</v>
-      </c>
-    </row>
-    <row r="29" spans="1:88">
-      <c r="A29" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" s="2">
-        <v>0.78</v>
-      </c>
-      <c r="C29" s="2">
-        <v>0.88</v>
-      </c>
-      <c r="D29" s="2">
-        <v>0.56699999999999995</v>
-      </c>
-      <c r="E29" s="2">
-        <v>0.47</v>
-      </c>
-      <c r="F29" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="G29" s="2">
-        <v>0.56599999999999995</v>
-      </c>
-      <c r="H29" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="I29" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="J29" s="2">
-        <v>0.53400000000000003</v>
-      </c>
-      <c r="K29" s="2">
-        <v>0.68</v>
-      </c>
-      <c r="L29" s="2">
-        <v>0.62</v>
-      </c>
-      <c r="M29" s="2">
-        <v>0.63300000000000001</v>
-      </c>
-      <c r="N29" s="2">
-        <v>0.82</v>
-      </c>
-      <c r="O29" s="2">
-        <v>0.67</v>
-      </c>
-      <c r="P29" s="2">
-        <v>0.503</v>
-      </c>
-      <c r="Q29" s="2">
-        <v>0.84</v>
-      </c>
-      <c r="R29" s="2">
-        <v>0.88</v>
-      </c>
-      <c r="S29" s="2">
-        <v>0.81299999999999994</v>
-      </c>
-      <c r="T29" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="U29" s="2">
-        <v>0.37</v>
-      </c>
-      <c r="V29" s="2">
-        <v>0.503</v>
-      </c>
-      <c r="W29" s="2">
-        <v>0.62</v>
-      </c>
-      <c r="X29" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="Y29" s="2">
-        <v>0.48799999999999999</v>
-      </c>
-      <c r="Z29" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AA29" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="AB29" s="2">
-        <v>0.42499999999999999</v>
-      </c>
-      <c r="AC29" s="2">
-        <v>0.64</v>
-      </c>
-      <c r="AD29" s="2">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="AE29" s="2">
-        <v>0.75900000000000001</v>
-      </c>
-      <c r="AF29" s="2">
-        <v>0.22</v>
-      </c>
-      <c r="AG29" s="2">
-        <v>0.33</v>
-      </c>
-      <c r="AH29" s="2">
-        <v>0.60899999999999999</v>
-      </c>
-      <c r="AI29" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="AJ29" s="2">
-        <v>0.92</v>
-      </c>
-      <c r="AK29" s="2">
-        <v>0.57899999999999996</v>
-      </c>
-      <c r="AL29" s="2">
-        <v>0.71</v>
-      </c>
-      <c r="AM29" s="2">
-        <v>0.77</v>
-      </c>
-      <c r="AN29" s="2">
-        <v>0.56100000000000005</v>
-      </c>
-      <c r="AO29" s="2">
-        <v>0.65</v>
-      </c>
-      <c r="AP29" s="2">
-        <v>0.65</v>
-      </c>
-      <c r="AQ29" s="2">
-        <v>0.55100000000000005</v>
-      </c>
-      <c r="AR29" s="2">
-        <v>0.69</v>
-      </c>
-      <c r="AS29" s="2">
-        <v>0.65</v>
-      </c>
-      <c r="AT29" s="2">
-        <v>0.57599999999999996</v>
-      </c>
-      <c r="AU29" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="AV29" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="AW29" s="2">
-        <v>0.51800000000000002</v>
-      </c>
-      <c r="AX29" s="2">
-        <v>0.71</v>
-      </c>
-      <c r="AY29" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="AZ29" s="2">
-        <v>0.59799999999999998</v>
-      </c>
-      <c r="BA29" s="2">
-        <v>0.33</v>
-      </c>
-      <c r="BB29" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="BC29" s="2">
-        <v>0.56799999999999995</v>
-      </c>
-      <c r="BD29" s="2">
-        <v>0.84</v>
-      </c>
-      <c r="BE29" s="2">
-        <v>0.67</v>
-      </c>
-      <c r="BF29" s="2">
-        <v>0.63900000000000001</v>
-      </c>
-      <c r="BG29" s="2">
-        <v>0.46</v>
-      </c>
-      <c r="BH29" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="BI29" s="2">
-        <v>0.53600000000000003</v>
-      </c>
-      <c r="BJ29" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="BK29" s="2">
-        <v>0.41</v>
-      </c>
-      <c r="BL29" s="2">
-        <v>0.39300000000000002</v>
-      </c>
-      <c r="BM29" s="2">
-        <v>0.67</v>
-      </c>
-      <c r="BN29" s="2">
-        <v>0.73</v>
-      </c>
-      <c r="BO29" s="2">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="BP29" s="2">
-        <v>0.83</v>
-      </c>
-      <c r="BQ29" s="2">
-        <v>0.83</v>
-      </c>
-      <c r="BR29" s="2">
-        <v>0.85299999999999998</v>
-      </c>
-      <c r="BS29" s="2">
-        <v>0.67</v>
-      </c>
-      <c r="BT29" s="2">
-        <v>0.77</v>
-      </c>
-      <c r="BU29" s="2">
-        <v>1.242</v>
-      </c>
-      <c r="BV29" s="2">
-        <v>0.74</v>
-      </c>
-      <c r="BW29" s="2">
-        <v>0.78</v>
-      </c>
-      <c r="BX29" s="2">
-        <v>1.038</v>
-      </c>
-      <c r="BY29" s="2">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="BZ29" s="2">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="CA29" s="2">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="CB29" s="2">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="CC29" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="CD29" s="2">
-        <v>0.751</v>
-      </c>
-      <c r="CE29" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="CF29" s="2">
-        <v>0.42</v>
-      </c>
-      <c r="CG29" s="2">
-        <v>0.77300000000000002</v>
-      </c>
-      <c r="CH29" s="2">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="CI29" s="2">
-        <v>0.64</v>
-      </c>
-      <c r="CJ29" s="2">
-        <v>0.61</v>
-      </c>
-    </row>
-    <row r="30" spans="1:88">
-      <c r="A30" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" s="2">
-        <v>0.78</v>
-      </c>
-      <c r="C30" s="2">
-        <v>0.88</v>
-      </c>
-      <c r="D30" s="2">
-        <v>0.622</v>
-      </c>
-      <c r="E30" s="2">
-        <v>0.47</v>
-      </c>
-      <c r="F30" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="G30" s="2">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="H30" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="I30" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="J30" s="2">
-        <v>0.68400000000000005</v>
-      </c>
-      <c r="K30" s="2">
-        <v>0.68</v>
-      </c>
-      <c r="L30" s="2">
-        <v>0.62</v>
-      </c>
-      <c r="M30" s="2">
-        <v>0.59399999999999997</v>
-      </c>
-      <c r="N30" s="2">
-        <v>0.82</v>
-      </c>
-      <c r="O30" s="2">
-        <v>0.67</v>
-      </c>
-      <c r="P30" s="2">
-        <v>0.54200000000000004</v>
-      </c>
-      <c r="Q30" s="2">
-        <v>0.84</v>
-      </c>
-      <c r="R30" s="2">
-        <v>0.88</v>
-      </c>
-      <c r="S30" s="2">
-        <v>0.82599999999999996</v>
-      </c>
-      <c r="T30" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="U30" s="2">
-        <v>0.37</v>
-      </c>
-      <c r="V30" s="2">
-        <v>0.52700000000000002</v>
-      </c>
-      <c r="W30" s="2">
-        <v>0.62</v>
-      </c>
-      <c r="X30" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="Y30" s="2">
-        <v>0.624</v>
-      </c>
-      <c r="Z30" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AA30" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="AB30" s="2">
-        <v>0.433</v>
-      </c>
-      <c r="AC30" s="2">
-        <v>0.64</v>
-      </c>
-      <c r="AD30" s="2">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="AE30" s="2">
-        <v>0.73899999999999999</v>
-      </c>
-      <c r="AF30" s="2">
-        <v>0.22</v>
-      </c>
-      <c r="AG30" s="2">
-        <v>0.33</v>
-      </c>
-      <c r="AH30" s="2">
-        <v>0.66100000000000003</v>
-      </c>
-      <c r="AI30" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="AJ30" s="2">
-        <v>0.92</v>
-      </c>
-      <c r="AK30" s="2">
-        <v>0.53600000000000003</v>
-      </c>
-      <c r="AL30" s="2">
-        <v>0.71</v>
-      </c>
-      <c r="AM30" s="2">
-        <v>0.77</v>
-      </c>
-      <c r="AN30" s="2">
-        <v>0.56499999999999995</v>
-      </c>
-      <c r="AO30" s="2">
-        <v>0.65</v>
-      </c>
-      <c r="AP30" s="2">
-        <v>0.65</v>
-      </c>
-      <c r="AQ30" s="2">
-        <v>0.53400000000000003</v>
-      </c>
-      <c r="AR30" s="2">
-        <v>0.69</v>
-      </c>
-      <c r="AS30" s="2">
-        <v>0.65</v>
-      </c>
-      <c r="AT30" s="2">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="AU30" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="AV30" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="AW30" s="2">
-        <v>0.52900000000000003</v>
-      </c>
-      <c r="AX30" s="2">
-        <v>0.71</v>
-      </c>
-      <c r="AY30" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="AZ30" s="2">
-        <v>0.58199999999999996</v>
-      </c>
-      <c r="BA30" s="2">
-        <v>0.33</v>
-      </c>
-      <c r="BB30" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="BC30" s="2">
-        <v>0.58199999999999996</v>
-      </c>
-      <c r="BD30" s="2">
-        <v>0.84</v>
-      </c>
-      <c r="BE30" s="2">
-        <v>0.67</v>
-      </c>
-      <c r="BF30" s="2">
-        <v>0.64700000000000002</v>
-      </c>
-      <c r="BG30" s="2">
-        <v>0.46</v>
-      </c>
-      <c r="BH30" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="BI30" s="2">
-        <v>0.54100000000000004</v>
-      </c>
-      <c r="BJ30" s="2">
-        <v>0.46</v>
-      </c>
-      <c r="BK30" s="2">
-        <v>0.32</v>
-      </c>
-      <c r="BL30" s="2">
-        <v>0.49199999999999999</v>
-      </c>
-      <c r="BM30" s="2">
-        <v>0.67</v>
-      </c>
-      <c r="BN30" s="2">
-        <v>0.73</v>
-      </c>
-      <c r="BO30" s="2">
-        <v>0.54300000000000004</v>
-      </c>
-      <c r="BP30" s="2">
-        <v>0.83</v>
-      </c>
-      <c r="BQ30" s="2">
-        <v>0.83</v>
-      </c>
-      <c r="BR30" s="2">
-        <v>0.94399999999999995</v>
-      </c>
-      <c r="BS30" s="2">
-        <v>0.67</v>
-      </c>
-      <c r="BT30" s="2">
-        <v>0.77</v>
-      </c>
-      <c r="BU30" s="2">
-        <v>1.5549999999999999</v>
-      </c>
-      <c r="BV30" s="2">
-        <v>0.74</v>
-      </c>
-      <c r="BW30" s="2">
-        <v>0.78</v>
-      </c>
-      <c r="BX30" s="2">
-        <v>0.96799999999999997</v>
-      </c>
-      <c r="BY30" s="2">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="BZ30" s="2">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="CA30" s="2">
-        <v>0.59899999999999998</v>
-      </c>
-      <c r="CB30" s="2">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="CC30" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="CD30" s="2">
-        <v>0.70399999999999996</v>
-      </c>
-      <c r="CE30" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="CF30" s="2">
-        <v>0.42</v>
-      </c>
-      <c r="CG30" s="2">
-        <v>0.78500000000000003</v>
-      </c>
-      <c r="CH30" s="2">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="CI30" s="2">
-        <v>0.64</v>
-      </c>
-      <c r="CJ30" s="2">
-        <v>0.627</v>
-      </c>
-    </row>
-    <row r="31" spans="1:88">
-      <c r="A31" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31" s="2">
-        <v>0.78</v>
-      </c>
-      <c r="C31" s="2">
-        <v>0.88</v>
-      </c>
-      <c r="D31" s="2">
-        <v>0.61699999999999999</v>
-      </c>
-      <c r="E31" s="2">
-        <v>0.47</v>
-      </c>
-      <c r="F31" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="G31" s="2">
-        <v>0.58299999999999996</v>
-      </c>
-      <c r="H31" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="I31" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="J31" s="2">
-        <v>0.52300000000000002</v>
-      </c>
-      <c r="K31" s="2">
-        <v>0.68</v>
-      </c>
-      <c r="L31" s="2">
-        <v>0.62</v>
-      </c>
-      <c r="M31" s="2">
-        <v>0.78700000000000003</v>
-      </c>
-      <c r="N31" s="2">
-        <v>0.82</v>
-      </c>
-      <c r="O31" s="2">
-        <v>0.67</v>
-      </c>
-      <c r="P31" s="2">
-        <v>0.53900000000000003</v>
-      </c>
-      <c r="Q31" s="2">
-        <v>0.84</v>
-      </c>
-      <c r="R31" s="2">
-        <v>0.88</v>
-      </c>
-      <c r="S31" s="2">
-        <v>0.84199999999999997</v>
-      </c>
-      <c r="T31" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="U31" s="2">
-        <v>0.37</v>
-      </c>
-      <c r="V31" s="2">
-        <v>0.55800000000000005</v>
-      </c>
-      <c r="W31" s="2">
-        <v>0.62</v>
-      </c>
-      <c r="X31" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="Y31" s="2">
-        <v>0.45200000000000001</v>
-      </c>
-      <c r="Z31" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AA31" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="AB31" s="2">
-        <v>0.441</v>
-      </c>
-      <c r="AC31" s="2">
-        <v>0.64</v>
-      </c>
-      <c r="AD31" s="2">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="AE31" s="2">
-        <v>0.76500000000000001</v>
-      </c>
-      <c r="AF31" s="2">
-        <v>0.22</v>
-      </c>
-      <c r="AG31" s="2">
-        <v>0.33</v>
-      </c>
-      <c r="AH31" s="2">
-        <v>0.66500000000000004</v>
-      </c>
-      <c r="AI31" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="AJ31" s="2">
-        <v>0.92</v>
-      </c>
-      <c r="AK31" s="2">
-        <v>0.56399999999999995</v>
-      </c>
-      <c r="AL31" s="2">
-        <v>0.71</v>
-      </c>
-      <c r="AM31" s="2">
-        <v>0.77</v>
-      </c>
-      <c r="AN31" s="2">
-        <v>0.70899999999999996</v>
-      </c>
-      <c r="AO31" s="2">
-        <v>0.65</v>
-      </c>
-      <c r="AP31" s="2">
-        <v>0.65</v>
-      </c>
-      <c r="AQ31" s="2">
-        <v>0.57699999999999996</v>
-      </c>
-      <c r="AR31" s="2">
-        <v>0.69</v>
-      </c>
-      <c r="AS31" s="2">
-        <v>0.65</v>
-      </c>
-      <c r="AT31" s="2">
-        <v>0.58799999999999997</v>
-      </c>
-      <c r="AU31" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="AV31" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="AW31" s="2">
-        <v>0.54100000000000004</v>
-      </c>
-      <c r="AX31" s="2">
-        <v>0.71</v>
-      </c>
-      <c r="AY31" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="AZ31" s="2">
-        <v>0.61099999999999999</v>
-      </c>
-      <c r="BA31" s="2">
-        <v>0.33</v>
-      </c>
-      <c r="BB31" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="BC31" s="2">
-        <v>0.56100000000000005</v>
-      </c>
-      <c r="BD31" s="2">
-        <v>0.84</v>
-      </c>
-      <c r="BE31" s="2">
-        <v>0.67</v>
-      </c>
-      <c r="BF31" s="2">
-        <v>0.68700000000000006</v>
-      </c>
-      <c r="BG31" s="2">
-        <v>0.46</v>
-      </c>
-      <c r="BH31" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="BI31" s="2">
-        <v>0.54900000000000004</v>
-      </c>
-      <c r="BJ31" s="2">
-        <v>0.46</v>
-      </c>
-      <c r="BK31" s="2">
-        <v>0.32</v>
-      </c>
-      <c r="BL31" s="2">
-        <v>0.50800000000000001</v>
-      </c>
-      <c r="BM31" s="2">
-        <v>0.67</v>
-      </c>
-      <c r="BN31" s="2">
-        <v>0.73</v>
-      </c>
-      <c r="BO31" s="2">
-        <v>0.56499999999999995</v>
-      </c>
-      <c r="BP31" s="2">
-        <v>0.83</v>
-      </c>
-      <c r="BQ31" s="2">
-        <v>0.83</v>
-      </c>
-      <c r="BR31" s="2">
-        <v>0.98099999999999998</v>
-      </c>
-      <c r="BS31" s="2">
-        <v>0.67</v>
-      </c>
-      <c r="BT31" s="2">
-        <v>0.77</v>
-      </c>
-      <c r="BU31" s="2">
-        <v>1.145</v>
-      </c>
-      <c r="BV31" s="2">
-        <v>0.74</v>
-      </c>
-      <c r="BW31" s="2">
-        <v>0.78</v>
-      </c>
-      <c r="BX31" s="2">
-        <v>0.86799999999999999</v>
-      </c>
-      <c r="BY31" s="2">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="BZ31" s="2">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="CA31" s="2">
-        <v>0.60699999999999998</v>
-      </c>
-      <c r="CB31" s="2">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="CC31" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="CD31" s="2">
-        <v>0.74</v>
-      </c>
-      <c r="CE31" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="CF31" s="2">
-        <v>0.42</v>
-      </c>
-      <c r="CG31" s="2">
-        <v>0.78500000000000003</v>
-      </c>
-      <c r="CH31" s="2">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="CI31" s="2">
-        <v>0.64</v>
-      </c>
-      <c r="CJ31" s="2">
-        <v>0.64</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="BV1:BX1"/>
-    <mergeCell ref="BY1:CA1"/>
-    <mergeCell ref="CB1:CD1"/>
-    <mergeCell ref="CE1:CG1"/>
-    <mergeCell ref="CH1:CJ1"/>
-    <mergeCell ref="BS1:BU1"/>
-    <mergeCell ref="AL1:AN1"/>
-    <mergeCell ref="AO1:AQ1"/>
-    <mergeCell ref="AR1:AT1"/>
-    <mergeCell ref="AU1:AW1"/>
-    <mergeCell ref="AX1:AZ1"/>
-    <mergeCell ref="BA1:BC1"/>
-    <mergeCell ref="BD1:BF1"/>
-    <mergeCell ref="BG1:BI1"/>
-    <mergeCell ref="BJ1:BL1"/>
-    <mergeCell ref="BM1:BO1"/>
-    <mergeCell ref="BP1:BR1"/>
-    <mergeCell ref="AI1:AK1"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="T1:V1"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="AC1:AE1"/>
-    <mergeCell ref="AF1:AH1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -13900,7 +5712,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CJ31"/>
   <sheetViews>
@@ -21521,11 +13333,18 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="BV1:BX1"/>
-    <mergeCell ref="BY1:CA1"/>
-    <mergeCell ref="CB1:CD1"/>
-    <mergeCell ref="CE1:CG1"/>
-    <mergeCell ref="CH1:CJ1"/>
+    <mergeCell ref="AI1:AK1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="T1:V1"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="AF1:AH1"/>
     <mergeCell ref="BS1:BU1"/>
     <mergeCell ref="AL1:AN1"/>
     <mergeCell ref="AO1:AQ1"/>
@@ -21538,18 +13357,11 @@
     <mergeCell ref="BJ1:BL1"/>
     <mergeCell ref="BM1:BO1"/>
     <mergeCell ref="BP1:BR1"/>
-    <mergeCell ref="AI1:AK1"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="T1:V1"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="AC1:AE1"/>
-    <mergeCell ref="AF1:AH1"/>
+    <mergeCell ref="BV1:BX1"/>
+    <mergeCell ref="BY1:CA1"/>
+    <mergeCell ref="CB1:CD1"/>
+    <mergeCell ref="CE1:CG1"/>
+    <mergeCell ref="CH1:CJ1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -21560,7 +13372,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CJ31"/>
   <sheetViews>
@@ -29707,11 +21519,18 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="BV1:BX1"/>
-    <mergeCell ref="BY1:CA1"/>
-    <mergeCell ref="CB1:CD1"/>
-    <mergeCell ref="CE1:CG1"/>
-    <mergeCell ref="CH1:CJ1"/>
+    <mergeCell ref="AI1:AK1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="T1:V1"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="AF1:AH1"/>
     <mergeCell ref="BS1:BU1"/>
     <mergeCell ref="AL1:AN1"/>
     <mergeCell ref="AO1:AQ1"/>
@@ -29724,18 +21543,11 @@
     <mergeCell ref="BJ1:BL1"/>
     <mergeCell ref="BM1:BO1"/>
     <mergeCell ref="BP1:BR1"/>
-    <mergeCell ref="AI1:AK1"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="T1:V1"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="AC1:AE1"/>
-    <mergeCell ref="AF1:AH1"/>
+    <mergeCell ref="BV1:BX1"/>
+    <mergeCell ref="BY1:CA1"/>
+    <mergeCell ref="CB1:CD1"/>
+    <mergeCell ref="CE1:CG1"/>
+    <mergeCell ref="CH1:CJ1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -29747,7 +21559,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CJ31"/>
   <sheetViews>
@@ -37890,11 +29702,18 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="BV1:BX1"/>
-    <mergeCell ref="BY1:CA1"/>
-    <mergeCell ref="CB1:CD1"/>
-    <mergeCell ref="CE1:CG1"/>
-    <mergeCell ref="CH1:CJ1"/>
+    <mergeCell ref="AI1:AK1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="T1:V1"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="AF1:AH1"/>
     <mergeCell ref="BS1:BU1"/>
     <mergeCell ref="AL1:AN1"/>
     <mergeCell ref="AO1:AQ1"/>
@@ -37907,18 +29726,11 @@
     <mergeCell ref="BJ1:BL1"/>
     <mergeCell ref="BM1:BO1"/>
     <mergeCell ref="BP1:BR1"/>
-    <mergeCell ref="AI1:AK1"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="T1:V1"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="AC1:AE1"/>
-    <mergeCell ref="AF1:AH1"/>
+    <mergeCell ref="BV1:BX1"/>
+    <mergeCell ref="BY1:CA1"/>
+    <mergeCell ref="CB1:CD1"/>
+    <mergeCell ref="CE1:CG1"/>
+    <mergeCell ref="CH1:CJ1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -37929,7 +29741,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J31"/>
   <sheetViews>
@@ -39200,11 +31012,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData/>
